--- a/outputs-HGR-r202/train-f__Acidaminococcaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-f__Acidaminococcaceae_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="1222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1525">
   <si>
     <t>Row</t>
   </si>
@@ -3683,6 +3684,915 @@
   </si>
   <si>
     <t>label_UMGS663_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1727_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1727_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS254_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS3_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS457_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS667_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1431_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_123.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_124.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_126.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_127.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_78.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_80.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1712_81.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS255_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS255_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_55.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_56.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS470_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS706_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS791_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS791_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS791_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS791_24.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_17.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_2.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_41.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_43.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_48.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_5.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_6.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000188175_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_107.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_109.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_42.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_70.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_77.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_89.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_90.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_92.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1385_97.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1456_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1456_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1456_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1456_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1456_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_74.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1554_96.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_108.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_111.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_117.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_118.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_5.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_68.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_75.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_82.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_91.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1568_94.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2001_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2024_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2024_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2024_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2024_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2024_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_17.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS411_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_34.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_52.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS717_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS733_10.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS733_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS733_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS733_26.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS733_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_28.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS983_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_2.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_24.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_41.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS121_59.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_103.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_104.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_106.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_11.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_110.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_119.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_12.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_39.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_43.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_57.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_60.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_65.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_71.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_85.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_88.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1228_98.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_32.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_47.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS369_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS663_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS663_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS663_4.fasta</t>
   </si>
 </sst>
 </file>
@@ -3703,7 +4613,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -3719,11 +4629,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -3733,6 +4645,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -31847,4 +32761,7014 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G304"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="true"/>
+    <col min="2" max="2" width="19.28515625" customWidth="true"/>
+    <col min="3" max="3" width="24.28515625" customWidth="true"/>
+    <col min="4" max="4" width="26.5703125" customWidth="true"/>
+    <col min="5" max="5" width="18.5703125" customWidth="true"/>
+    <col min="6" max="6" width="10.28515625" customWidth="true"/>
+    <col min="7" max="7" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B2">
+        <v>0.9698558518928817</v>
+      </c>
+      <c r="C2">
+        <v>9.5879557544614263e-12</v>
+      </c>
+      <c r="D2">
+        <v>0.0027538028340864419</v>
+      </c>
+      <c r="E2">
+        <v>0.027390345263443774</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B3">
+        <v>0.99547065716588601</v>
+      </c>
+      <c r="C3">
+        <v>1.8695422650543871e-11</v>
+      </c>
+      <c r="D3">
+        <v>0.0017205307166476697</v>
+      </c>
+      <c r="E3">
+        <v>0.0028088120987708894</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B4">
+        <v>0.97796590800118588</v>
+      </c>
+      <c r="C4">
+        <v>5.0687112362229339e-14</v>
+      </c>
+      <c r="D4">
+        <v>2.0221387054867838e-11</v>
+      </c>
+      <c r="E4">
+        <v>0.022034091978542125</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B5">
+        <v>0.99732183175145317</v>
+      </c>
+      <c r="C5">
+        <v>7.4605896517548912e-14</v>
+      </c>
+      <c r="D5">
+        <v>6.279784609827354e-12</v>
+      </c>
+      <c r="E5">
+        <v>0.0026781682421924613</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B6">
+        <v>0.99836633373685657</v>
+      </c>
+      <c r="C6">
+        <v>0.00054158440816743465</v>
+      </c>
+      <c r="D6">
+        <v>0.00054158440871545147</v>
+      </c>
+      <c r="E6">
+        <v>0.00055049744626066606</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B7">
+        <v>0.99998069822924907</v>
+      </c>
+      <c r="C7">
+        <v>2.2219158692564505e-14</v>
+      </c>
+      <c r="D7">
+        <v>4.0388898902813238e-11</v>
+      </c>
+      <c r="E7">
+        <v>1.9301730339894922e-05</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B8">
+        <v>0.99821052244906106</v>
+      </c>
+      <c r="C8">
+        <v>0.00059198851913197363</v>
+      </c>
+      <c r="D8">
+        <v>0.00059198851922033242</v>
+      </c>
+      <c r="E8">
+        <v>0.00060550051258676538</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B9">
+        <v>0.99814145294447165</v>
+      </c>
+      <c r="C9">
+        <v>2.7190001338074502e-10</v>
+      </c>
+      <c r="D9">
+        <v>1.5813266343606829e-11</v>
+      </c>
+      <c r="E9">
+        <v>0.001858546767815078</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B10">
+        <v>0.92103796699638352</v>
+      </c>
+      <c r="C10">
+        <v>1.0172041775756375e-11</v>
+      </c>
+      <c r="D10">
+        <v>3.6462743570626753e-12</v>
+      </c>
+      <c r="E10">
+        <v>0.078962032989798203</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B11">
+        <v>0.99999991014869516</v>
+      </c>
+      <c r="C11">
+        <v>9.5063243770874081e-09</v>
+      </c>
+      <c r="D11">
+        <v>1.5485407333984267e-09</v>
+      </c>
+      <c r="E11">
+        <v>7.8796439701015138e-08</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B12">
+        <v>0.99999950986661024</v>
+      </c>
+      <c r="C12">
+        <v>3.4475223843227943e-07</v>
+      </c>
+      <c r="D12">
+        <v>5.4609690728871794e-11</v>
+      </c>
+      <c r="E12">
+        <v>1.4532654160577405e-07</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B13">
+        <v>0.99867207987375395</v>
+      </c>
+      <c r="C13">
+        <v>3.0658506109905643e-05</v>
+      </c>
+      <c r="D13">
+        <v>6.0787129169192702e-06</v>
+      </c>
+      <c r="E13">
+        <v>0.0012911829072192141</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B14">
+        <v>0.49717626655739583</v>
+      </c>
+      <c r="C14">
+        <v>0.0016832847974178912</v>
+      </c>
+      <c r="D14">
+        <v>3.6047821886627817e-13</v>
+      </c>
+      <c r="E14">
+        <v>0.50114044864482576</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B15">
+        <v>0.99816294301190955</v>
+      </c>
+      <c r="C15">
+        <v>0.0018364225652487609</v>
+      </c>
+      <c r="D15">
+        <v>9.9152716029821366e-10</v>
+      </c>
+      <c r="E15">
+        <v>6.3343131452563554e-07</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B16">
+        <v>0.99999910110079271</v>
+      </c>
+      <c r="C16">
+        <v>2.2212807606134485e-14</v>
+      </c>
+      <c r="D16">
+        <v>1.1882283379876241e-12</v>
+      </c>
+      <c r="E16">
+        <v>8.9889799692449783e-07</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B17">
+        <v>0.9999000405950691</v>
+      </c>
+      <c r="C17">
+        <v>1.7797641015689647e-12</v>
+      </c>
+      <c r="D17">
+        <v>7.5462953950950057e-05</v>
+      </c>
+      <c r="E17">
+        <v>2.4496449200138577e-05</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B18">
+        <v>0.99966956046675304</v>
+      </c>
+      <c r="C18">
+        <v>6.189976964734262e-11</v>
+      </c>
+      <c r="D18">
+        <v>0.00027258952236652347</v>
+      </c>
+      <c r="E18">
+        <v>5.7849948980622052e-05</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B19">
+        <v>0.99993973534884539</v>
+      </c>
+      <c r="C19">
+        <v>4.7324203157008852e-11</v>
+      </c>
+      <c r="D19">
+        <v>1.487409266059095e-05</v>
+      </c>
+      <c r="E19">
+        <v>4.5390511169690381e-05</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B20">
+        <v>0.9998671693845893</v>
+      </c>
+      <c r="C20">
+        <v>3.2602899550199346e-12</v>
+      </c>
+      <c r="D20">
+        <v>9.9577727195009666e-05</v>
+      </c>
+      <c r="E20">
+        <v>3.3252884955372782e-05</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B21">
+        <v>0.99959621740726912</v>
+      </c>
+      <c r="C21">
+        <v>1.0540678301558806e-09</v>
+      </c>
+      <c r="D21">
+        <v>0.00031683880608545804</v>
+      </c>
+      <c r="E21">
+        <v>8.6942732577475186e-05</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B22">
+        <v>0.99891740759602932</v>
+      </c>
+      <c r="C22">
+        <v>1.4669166006154152e-09</v>
+      </c>
+      <c r="D22">
+        <v>0.0002163247177011449</v>
+      </c>
+      <c r="E22">
+        <v>0.00086626621935292068</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B23">
+        <v>0.99978487743611022</v>
+      </c>
+      <c r="C23">
+        <v>6.8678989778291611e-10</v>
+      </c>
+      <c r="D23">
+        <v>5.5659240231838461e-05</v>
+      </c>
+      <c r="E23">
+        <v>0.00015946263686793434</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B24">
+        <v>0.9996311361812551</v>
+      </c>
+      <c r="C24">
+        <v>2.4702055856602324e-09</v>
+      </c>
+      <c r="D24">
+        <v>5.7147761449425059e-05</v>
+      </c>
+      <c r="E24">
+        <v>0.00031171358708972967</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B25">
+        <v>0.99069004275658268</v>
+      </c>
+      <c r="C25">
+        <v>1.9313808723237558e-06</v>
+      </c>
+      <c r="D25">
+        <v>0.0054279469016738895</v>
+      </c>
+      <c r="E25">
+        <v>0.0038800789608712544</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B26">
+        <v>0.99993473024673296</v>
+      </c>
+      <c r="C26">
+        <v>1.5297199303249356e-07</v>
+      </c>
+      <c r="D26">
+        <v>4.4916113386067471e-05</v>
+      </c>
+      <c r="E26">
+        <v>2.0200667887942569e-05</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B27">
+        <v>0.99818767064967251</v>
+      </c>
+      <c r="C27">
+        <v>8.4086535285980574e-07</v>
+      </c>
+      <c r="D27">
+        <v>0.00017148806187380447</v>
+      </c>
+      <c r="E27">
+        <v>0.0016400004231008178</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B28">
+        <v>0.99973444858675642</v>
+      </c>
+      <c r="C28">
+        <v>2.2618354440928894e-06</v>
+      </c>
+      <c r="D28">
+        <v>0.00022534163088487244</v>
+      </c>
+      <c r="E28">
+        <v>3.7947946914417341e-05</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B29">
+        <v>0.99974145513349855</v>
+      </c>
+      <c r="C29">
+        <v>4.9704010526072835e-12</v>
+      </c>
+      <c r="D29">
+        <v>3.1738259182868712e-06</v>
+      </c>
+      <c r="E29">
+        <v>0.00025537103561270582</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B30">
+        <v>0.99762175377682982</v>
+      </c>
+      <c r="C30">
+        <v>5.6764471880393207e-05</v>
+      </c>
+      <c r="D30">
+        <v>0.002318016242011852</v>
+      </c>
+      <c r="E30">
+        <v>3.4655092779906971e-06</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B31">
+        <v>0.89124172217870257</v>
+      </c>
+      <c r="C31">
+        <v>0.066632934249362008</v>
+      </c>
+      <c r="D31">
+        <v>0.029231381655877513</v>
+      </c>
+      <c r="E31">
+        <v>0.012893961916057888</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B32">
+        <v>0.99736847829790809</v>
+      </c>
+      <c r="C32">
+        <v>1.2538370920617738e-10</v>
+      </c>
+      <c r="D32">
+        <v>0.0024695351441105574</v>
+      </c>
+      <c r="E32">
+        <v>0.00016198643259757921</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B33">
+        <v>0.99999999802963235</v>
+      </c>
+      <c r="C33">
+        <v>2.2205230547488759e-14</v>
+      </c>
+      <c r="D33">
+        <v>2.2205230547488891e-14</v>
+      </c>
+      <c r="E33">
+        <v>1.9703232189589656e-09</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B34">
+        <v>0.99999999368494308</v>
+      </c>
+      <c r="C34">
+        <v>2.2205574584658015e-14</v>
+      </c>
+      <c r="D34">
+        <v>2.2360445590506744e-14</v>
+      </c>
+      <c r="E34">
+        <v>6.3150124096009857e-09</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B35">
+        <v>0.99999999171190734</v>
+      </c>
+      <c r="C35">
+        <v>2.7492268796502176e-13</v>
+      </c>
+      <c r="D35">
+        <v>2.2205782355039677e-14</v>
+      </c>
+      <c r="E35">
+        <v>8.2877955787810377e-09</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B36">
+        <v>0.99999945333141538</v>
+      </c>
+      <c r="C36">
+        <v>2.2208299711472392e-14</v>
+      </c>
+      <c r="D36">
+        <v>3.5914131241572777e-14</v>
+      </c>
+      <c r="E36">
+        <v>5.4666852653759271e-07</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B37">
+        <v>0.99999988203143697</v>
+      </c>
+      <c r="C37">
+        <v>5.7607267507523644e-12</v>
+      </c>
+      <c r="D37">
+        <v>7.9248409758255582e-14</v>
+      </c>
+      <c r="E37">
+        <v>1.179627229892421e-07</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B38">
+        <v>0.99999996664087676</v>
+      </c>
+      <c r="C38">
+        <v>8.2939379820096728e-12</v>
+      </c>
+      <c r="D38">
+        <v>3.7995075962767689e-14</v>
+      </c>
+      <c r="E38">
+        <v>3.3350791269491905e-08</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B39">
+        <v>0.99999870606029451</v>
+      </c>
+      <c r="C39">
+        <v>6.8866669991497728e-11</v>
+      </c>
+      <c r="D39">
+        <v>7.5812062735828898e-12</v>
+      </c>
+      <c r="E39">
+        <v>1.2938632575878184e-06</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B40">
+        <v>0.9999994623037276</v>
+      </c>
+      <c r="C40">
+        <v>5.0492693581495539e-11</v>
+      </c>
+      <c r="D40">
+        <v>8.8389467365732946e-14</v>
+      </c>
+      <c r="E40">
+        <v>5.376456913614641e-07</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B41">
+        <v>0.99999999635633086</v>
+      </c>
+      <c r="C41">
+        <v>3.6249439569521024e-09</v>
+      </c>
+      <c r="D41">
+        <v>8.2252701128087482e-12</v>
+      </c>
+      <c r="E41">
+        <v>1.0499827580915449e-11</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B42">
+        <v>0.99999982674892784</v>
+      </c>
+      <c r="C42">
+        <v>9.9422012256862085e-08</v>
+      </c>
+      <c r="D42">
+        <v>3.0241203232560854e-11</v>
+      </c>
+      <c r="E42">
+        <v>7.3798818678800385e-08</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B43">
+        <v>0.99999999989936073</v>
+      </c>
+      <c r="C43">
+        <v>2.2204697323014534e-14</v>
+      </c>
+      <c r="D43">
+        <v>2.2204697323014537e-14</v>
+      </c>
+      <c r="E43">
+        <v>1.0059489125417732e-10</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B44">
+        <v>0.99999955086432712</v>
+      </c>
+      <c r="C44">
+        <v>2.2204520615054107e-14</v>
+      </c>
+      <c r="D44">
+        <v>1.0227352679511685e-07</v>
+      </c>
+      <c r="E44">
+        <v>3.4686212383447224e-07</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B45">
+        <v>0.99999928101463809</v>
+      </c>
+      <c r="C45">
+        <v>2.2206601039439824e-14</v>
+      </c>
+      <c r="D45">
+        <v>4.8304704459641907e-10</v>
+      </c>
+      <c r="E45">
+        <v>7.1850229266585613e-07</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B46">
+        <v>0.9992569851527231</v>
+      </c>
+      <c r="C46">
+        <v>3.7466775632564693e-14</v>
+      </c>
+      <c r="D46">
+        <v>1.8189095977781766e-08</v>
+      </c>
+      <c r="E46">
+        <v>0.0007429966581434796</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B47">
+        <v>0.9999117636822541</v>
+      </c>
+      <c r="C47">
+        <v>2.2211021049142548e-14</v>
+      </c>
+      <c r="D47">
+        <v>2.2261808006899903e-07</v>
+      </c>
+      <c r="E47">
+        <v>8.8013699643665661e-05</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B48">
+        <v>0.99999903391673539</v>
+      </c>
+      <c r="C48">
+        <v>2.2208584727966754e-14</v>
+      </c>
+      <c r="D48">
+        <v>4.2412143608288459e-10</v>
+      </c>
+      <c r="E48">
+        <v>9.6565912104307604e-07</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B49">
+        <v>0.99999617038777966</v>
+      </c>
+      <c r="C49">
+        <v>2.4661589044056312e-13</v>
+      </c>
+      <c r="D49">
+        <v>3.0624982404126719e-09</v>
+      </c>
+      <c r="E49">
+        <v>3.826549475600458e-06</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B50">
+        <v>0.99999782112114133</v>
+      </c>
+      <c r="C50">
+        <v>2.3519188296810099e-10</v>
+      </c>
+      <c r="D50">
+        <v>4.6802059743923787e-11</v>
+      </c>
+      <c r="E50">
+        <v>2.1785968646371351e-06</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B51">
+        <v>0.99999374377460493</v>
+      </c>
+      <c r="C51">
+        <v>7.0231395061214013e-09</v>
+      </c>
+      <c r="D51">
+        <v>1.1917026793199174e-08</v>
+      </c>
+      <c r="E51">
+        <v>6.2372852287828301e-06</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B52">
+        <v>0.99963119999812911</v>
+      </c>
+      <c r="C52">
+        <v>0.00036871195095364165</v>
+      </c>
+      <c r="D52">
+        <v>8.8029107244638684e-08</v>
+      </c>
+      <c r="E52">
+        <v>2.1809892789110338e-11</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B53">
+        <v>0.99538700017318194</v>
+      </c>
+      <c r="C53">
+        <v>0.0038914830026637467</v>
+      </c>
+      <c r="D53">
+        <v>0.00017588736477494753</v>
+      </c>
+      <c r="E53">
+        <v>0.00054562945937936837</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B54">
+        <v>0.99877445287322408</v>
+      </c>
+      <c r="C54">
+        <v>0.0012254846305790477</v>
+      </c>
+      <c r="D54">
+        <v>6.2475745213149301e-08</v>
+      </c>
+      <c r="E54">
+        <v>2.0451726348516446e-11</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B55">
+        <v>0.89379102029851631</v>
+      </c>
+      <c r="C55">
+        <v>0.0059043468951352172</v>
+      </c>
+      <c r="D55">
+        <v>0.10030429438665932</v>
+      </c>
+      <c r="E55">
+        <v>3.3841968921151595e-07</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B56">
+        <v>0.99995965351546934</v>
+      </c>
+      <c r="C56">
+        <v>3.1463826537921676e-05</v>
+      </c>
+      <c r="D56">
+        <v>8.8627214346143415e-06</v>
+      </c>
+      <c r="E56">
+        <v>1.9936558080633037e-08</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B57">
+        <v>4.1788126676118458e-08</v>
+      </c>
+      <c r="C57">
+        <v>0.99870795845127591</v>
+      </c>
+      <c r="D57">
+        <v>1.053659206764654e-05</v>
+      </c>
+      <c r="E57">
+        <v>0.001281463168529818</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B58">
+        <v>5.0118398051216237e-07</v>
+      </c>
+      <c r="C58">
+        <v>0.99984973905002894</v>
+      </c>
+      <c r="D58">
+        <v>0.00012988779314026679</v>
+      </c>
+      <c r="E58">
+        <v>1.9871972850276269e-05</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B59">
+        <v>2.1060517728522761e-06</v>
+      </c>
+      <c r="C59">
+        <v>0.99877060054710309</v>
+      </c>
+      <c r="D59">
+        <v>0.00013149044127989493</v>
+      </c>
+      <c r="E59">
+        <v>0.0010958029598442164</v>
+      </c>
+      <c r="F59">
+        <v>2</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B60">
+        <v>5.5228413523912682e-06</v>
+      </c>
+      <c r="C60">
+        <v>0.9981971521296491</v>
+      </c>
+      <c r="D60">
+        <v>0.00048111437850651589</v>
+      </c>
+      <c r="E60">
+        <v>0.0013162106504920068</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B61">
+        <v>3.0988264235840175e-06</v>
+      </c>
+      <c r="C61">
+        <v>0.99678387532329304</v>
+      </c>
+      <c r="D61">
+        <v>0.0025074502156149088</v>
+      </c>
+      <c r="E61">
+        <v>0.00070557563466830246</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B62">
+        <v>6.6893960415779551e-07</v>
+      </c>
+      <c r="C62">
+        <v>0.99992591583164614</v>
+      </c>
+      <c r="D62">
+        <v>3.7314077242231724e-05</v>
+      </c>
+      <c r="E62">
+        <v>3.6101151507495913e-05</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B63">
+        <v>5.7454720926570742e-06</v>
+      </c>
+      <c r="C63">
+        <v>0.9920786076736825</v>
+      </c>
+      <c r="D63">
+        <v>0.0079079997930428698</v>
+      </c>
+      <c r="E63">
+        <v>7.6470611818927529e-06</v>
+      </c>
+      <c r="F63">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B64">
+        <v>1.4957951770545004e-05</v>
+      </c>
+      <c r="C64">
+        <v>0.84510023578332572</v>
+      </c>
+      <c r="D64">
+        <v>0.15488280878583691</v>
+      </c>
+      <c r="E64">
+        <v>1.9974790669621896e-06</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B65">
+        <v>1.0193836864591531e-06</v>
+      </c>
+      <c r="C65">
+        <v>0.99504277002906294</v>
+      </c>
+      <c r="D65">
+        <v>0.003528952114278098</v>
+      </c>
+      <c r="E65">
+        <v>0.0014272584729724256</v>
+      </c>
+      <c r="F65">
+        <v>2</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B66">
+        <v>1.1425399490664749e-05</v>
+      </c>
+      <c r="C66">
+        <v>0.98906914142889224</v>
+      </c>
+      <c r="D66">
+        <v>0.0071760387237755179</v>
+      </c>
+      <c r="E66">
+        <v>0.0037433944478415006</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B67">
+        <v>0.00014925990621770814</v>
+      </c>
+      <c r="C67">
+        <v>0.99840615658042853</v>
+      </c>
+      <c r="D67">
+        <v>0.0014381623289789266</v>
+      </c>
+      <c r="E67">
+        <v>6.4211843748948063e-06</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B68">
+        <v>0.0060145880620565469</v>
+      </c>
+      <c r="C68">
+        <v>0.99398469126333144</v>
+      </c>
+      <c r="D68">
+        <v>7.2053096421339143e-07</v>
+      </c>
+      <c r="E68">
+        <v>1.4364777464661524e-10</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B69">
+        <v>0.0012708330661920474</v>
+      </c>
+      <c r="C69">
+        <v>0.99865434898780281</v>
+      </c>
+      <c r="D69">
+        <v>7.472051446746478e-05</v>
+      </c>
+      <c r="E69">
+        <v>9.7431537817234113e-08</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B70">
+        <v>0.00011269495513553006</v>
+      </c>
+      <c r="C70">
+        <v>0.9958308495894439</v>
+      </c>
+      <c r="D70">
+        <v>0.0040564504270102514</v>
+      </c>
+      <c r="E70">
+        <v>5.028410436855285e-09</v>
+      </c>
+      <c r="F70">
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B71">
+        <v>0.0001094368689735443</v>
+      </c>
+      <c r="C71">
+        <v>0.99683301041068562</v>
+      </c>
+      <c r="D71">
+        <v>0.0030575520417223672</v>
+      </c>
+      <c r="E71">
+        <v>6.7861841925232961e-10</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B72">
+        <v>0.00090271448654473136</v>
+      </c>
+      <c r="C72">
+        <v>0.998250869491074</v>
+      </c>
+      <c r="D72">
+        <v>0.00084628526366455927</v>
+      </c>
+      <c r="E72">
+        <v>1.3075871678809707e-07</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="G72">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B73">
+        <v>0.00089610702171041617</v>
+      </c>
+      <c r="C73">
+        <v>0.99840471322440349</v>
+      </c>
+      <c r="D73">
+        <v>0.00069917975160860399</v>
+      </c>
+      <c r="E73">
+        <v>2.2772947027119324e-12</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B74">
+        <v>1.6993416859072341e-05</v>
+      </c>
+      <c r="C74">
+        <v>0.99771839826521824</v>
+      </c>
+      <c r="D74">
+        <v>0.00042635499974439821</v>
+      </c>
+      <c r="E74">
+        <v>0.0018382533181783697</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B75">
+        <v>1.7699460033710677e-06</v>
+      </c>
+      <c r="C75">
+        <v>0.99925076418093295</v>
+      </c>
+      <c r="D75">
+        <v>0.00074734020812973739</v>
+      </c>
+      <c r="E75">
+        <v>1.2566493391838566e-07</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B76">
+        <v>4.8348937393552697e-06</v>
+      </c>
+      <c r="C76">
+        <v>0.99990765862981268</v>
+      </c>
+      <c r="D76">
+        <v>8.7012050896267059e-05</v>
+      </c>
+      <c r="E76">
+        <v>4.9442555161478511e-07</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="9" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B77">
+        <v>2.2727899519248166e-06</v>
+      </c>
+      <c r="C77">
+        <v>0.99568212591743677</v>
+      </c>
+      <c r="D77">
+        <v>0.0042164292428717278</v>
+      </c>
+      <c r="E77">
+        <v>9.9172049739515219e-05</v>
+      </c>
+      <c r="F77">
+        <v>2</v>
+      </c>
+      <c r="G77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B78">
+        <v>0.00018762826417466276</v>
+      </c>
+      <c r="C78">
+        <v>0.99772440671376972</v>
+      </c>
+      <c r="D78">
+        <v>0.0020724027041155542</v>
+      </c>
+      <c r="E78">
+        <v>1.5562317940145163e-05</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B79">
+        <v>4.1461304956858772e-05</v>
+      </c>
+      <c r="C79">
+        <v>0.99988717978617714</v>
+      </c>
+      <c r="D79">
+        <v>6.9427750730673574e-05</v>
+      </c>
+      <c r="E79">
+        <v>1.9311581353379214e-06</v>
+      </c>
+      <c r="F79">
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B80">
+        <v>5.5307614541986808e-05</v>
+      </c>
+      <c r="C80">
+        <v>0.99958993991943834</v>
+      </c>
+      <c r="D80">
+        <v>0.00032933597235209835</v>
+      </c>
+      <c r="E80">
+        <v>2.541649366745747e-05</v>
+      </c>
+      <c r="F80">
+        <v>2</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B81">
+        <v>4.1174439272801967e-05</v>
+      </c>
+      <c r="C81">
+        <v>0.99995646953411532</v>
+      </c>
+      <c r="D81">
+        <v>2.085791321893401e-06</v>
+      </c>
+      <c r="E81">
+        <v>2.7023529007186638e-07</v>
+      </c>
+      <c r="F81">
+        <v>2</v>
+      </c>
+      <c r="G81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="9" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B82">
+        <v>0.00017251651850956528</v>
+      </c>
+      <c r="C82">
+        <v>0.99966275609827016</v>
+      </c>
+      <c r="D82">
+        <v>0.00016230468720888851</v>
+      </c>
+      <c r="E82">
+        <v>2.4226960114755422e-06</v>
+      </c>
+      <c r="F82">
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B83">
+        <v>0.00022067784291044434</v>
+      </c>
+      <c r="C83">
+        <v>0.99973907687115937</v>
+      </c>
+      <c r="D83">
+        <v>3.3156486055825931e-05</v>
+      </c>
+      <c r="E83">
+        <v>7.088799874273562e-06</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="9" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B84">
+        <v>8.5304694008661746e-05</v>
+      </c>
+      <c r="C84">
+        <v>0.99859574984046895</v>
+      </c>
+      <c r="D84">
+        <v>0.0013181311772969876</v>
+      </c>
+      <c r="E84">
+        <v>8.1428822535351136e-07</v>
+      </c>
+      <c r="F84">
+        <v>2</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B85">
+        <v>4.3867749685113866e-05</v>
+      </c>
+      <c r="C85">
+        <v>0.99946360328202255</v>
+      </c>
+      <c r="D85">
+        <v>0.00048358935944514941</v>
+      </c>
+      <c r="E85">
+        <v>8.9396088472089287e-06</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="9" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B86">
+        <v>0.00012174884503916794</v>
+      </c>
+      <c r="C86">
+        <v>0.99971198291700614</v>
+      </c>
+      <c r="D86">
+        <v>0.00016625979972811029</v>
+      </c>
+      <c r="E86">
+        <v>8.4382267438230382e-09</v>
+      </c>
+      <c r="F86">
+        <v>2</v>
+      </c>
+      <c r="G86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="9" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B87">
+        <v>1.6983546011963548e-05</v>
+      </c>
+      <c r="C87">
+        <v>0.99515975268202705</v>
+      </c>
+      <c r="D87">
+        <v>0.0048114367775159289</v>
+      </c>
+      <c r="E87">
+        <v>1.1826994444886399e-05</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="9" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B88">
+        <v>3.9911596636933907e-05</v>
+      </c>
+      <c r="C88">
+        <v>0.9987373706732281</v>
+      </c>
+      <c r="D88">
+        <v>0.0012227177301128147</v>
+      </c>
+      <c r="E88">
+        <v>2.2198102661811575e-14</v>
+      </c>
+      <c r="F88">
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B89">
+        <v>0.0018989432878401108</v>
+      </c>
+      <c r="C89">
+        <v>0.99788362111940632</v>
+      </c>
+      <c r="D89">
+        <v>7.601008647108512e-05</v>
+      </c>
+      <c r="E89">
+        <v>0.00014142550628225983</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="9" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B90">
+        <v>6.9401321960995799e-06</v>
+      </c>
+      <c r="C90">
+        <v>0.99973586971467843</v>
+      </c>
+      <c r="D90">
+        <v>0.00025566398745531152</v>
+      </c>
+      <c r="E90">
+        <v>1.5261656700709702e-06</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B91">
+        <v>6.9993122667070742e-08</v>
+      </c>
+      <c r="C91">
+        <v>0.99755912406883318</v>
+      </c>
+      <c r="D91">
+        <v>0.00034156217021409749</v>
+      </c>
+      <c r="E91">
+        <v>0.0020992437678302119</v>
+      </c>
+      <c r="F91">
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B92">
+        <v>0.00067139694681943112</v>
+      </c>
+      <c r="C92">
+        <v>0.77690777544606993</v>
+      </c>
+      <c r="D92">
+        <v>0.085038635332726112</v>
+      </c>
+      <c r="E92">
+        <v>0.13738219227438467</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B93">
+        <v>5.1966634499297084e-08</v>
+      </c>
+      <c r="C93">
+        <v>0.99991858588675853</v>
+      </c>
+      <c r="D93">
+        <v>1.1922361056626458e-05</v>
+      </c>
+      <c r="E93">
+        <v>6.9439785550161822e-05</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B94">
+        <v>1.5584988378730497e-06</v>
+      </c>
+      <c r="C94">
+        <v>0.99941706838195166</v>
+      </c>
+      <c r="D94">
+        <v>0.00041953945271552774</v>
+      </c>
+      <c r="E94">
+        <v>0.00016183366649511323</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B95">
+        <v>5.8098803246214455e-08</v>
+      </c>
+      <c r="C95">
+        <v>0.99932117217010963</v>
+      </c>
+      <c r="D95">
+        <v>0.00063582640153211955</v>
+      </c>
+      <c r="E95">
+        <v>4.2943329554897517e-05</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B96">
+        <v>1.5604356777161848e-08</v>
+      </c>
+      <c r="C96">
+        <v>0.99941314567843309</v>
+      </c>
+      <c r="D96">
+        <v>0.00058559308263282195</v>
+      </c>
+      <c r="E96">
+        <v>1.2456345774161703e-06</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B97">
+        <v>4.5662055946979189e-06</v>
+      </c>
+      <c r="C97">
+        <v>0.99986524788814735</v>
+      </c>
+      <c r="D97">
+        <v>5.3162101249943532e-05</v>
+      </c>
+      <c r="E97">
+        <v>7.7023805008013304e-05</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B98">
+        <v>2.6648505964481804e-07</v>
+      </c>
+      <c r="C98">
+        <v>0.99989144755607895</v>
+      </c>
+      <c r="D98">
+        <v>9.0122779722673121e-05</v>
+      </c>
+      <c r="E98">
+        <v>1.8163179138684083e-05</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B99">
+        <v>5.2971061515858347e-06</v>
+      </c>
+      <c r="C99">
+        <v>0.97292775817679844</v>
+      </c>
+      <c r="D99">
+        <v>0.02699003995087472</v>
+      </c>
+      <c r="E99">
+        <v>7.6904766175220877e-05</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B100">
+        <v>1.3276749501665048e-08</v>
+      </c>
+      <c r="C100">
+        <v>0.99429174367575124</v>
+      </c>
+      <c r="D100">
+        <v>0.0057082430456083643</v>
+      </c>
+      <c r="E100">
+        <v>1.8909167029575042e-12</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B101">
+        <v>1.7147158625167323e-07</v>
+      </c>
+      <c r="C101">
+        <v>0.97044437851152965</v>
+      </c>
+      <c r="D101">
+        <v>0.029555448878006728</v>
+      </c>
+      <c r="E101">
+        <v>1.1388775823914588e-09</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B102">
+        <v>3.5581364505862843e-08</v>
+      </c>
+      <c r="C102">
+        <v>0.53272720457963807</v>
+      </c>
+      <c r="D102">
+        <v>0.46727275983894145</v>
+      </c>
+      <c r="E102">
+        <v>5.5916416477783028e-14</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B103">
+        <v>2.6274598685514036e-06</v>
+      </c>
+      <c r="C103">
+        <v>0.98812772486093137</v>
+      </c>
+      <c r="D103">
+        <v>0.011861840882954049</v>
+      </c>
+      <c r="E103">
+        <v>7.806796246164009e-06</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B104">
+        <v>1.4084074677500725e-06</v>
+      </c>
+      <c r="C104">
+        <v>0.98167358123518278</v>
+      </c>
+      <c r="D104">
+        <v>0.018324954789972842</v>
+      </c>
+      <c r="E104">
+        <v>5.5567376491524979e-08</v>
+      </c>
+      <c r="F104">
+        <v>2</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B105">
+        <v>4.1477251836250737e-07</v>
+      </c>
+      <c r="C105">
+        <v>0.99878941811547317</v>
+      </c>
+      <c r="D105">
+        <v>3.8695638823065364e-05</v>
+      </c>
+      <c r="E105">
+        <v>0.0011714714731854085</v>
+      </c>
+      <c r="F105">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B106">
+        <v>1.7732638547776364e-08</v>
+      </c>
+      <c r="C106">
+        <v>0.99985736479764953</v>
+      </c>
+      <c r="D106">
+        <v>0.00010883670824095301</v>
+      </c>
+      <c r="E106">
+        <v>3.3780761470973317e-05</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="9" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B107">
+        <v>1.1942982875023091e-07</v>
+      </c>
+      <c r="C107">
+        <v>0.9992753728145165</v>
+      </c>
+      <c r="D107">
+        <v>1.2846204428997024e-05</v>
+      </c>
+      <c r="E107">
+        <v>0.00071166155122584615</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="9" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B108">
+        <v>4.5110106962198764e-07</v>
+      </c>
+      <c r="C108">
+        <v>0.99672537806457373</v>
+      </c>
+      <c r="D108">
+        <v>0.0032634875183040328</v>
+      </c>
+      <c r="E108">
+        <v>1.0683316052499895e-05</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="9" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B109">
+        <v>1.5587756050568748e-06</v>
+      </c>
+      <c r="C109">
+        <v>0.99478083914478366</v>
+      </c>
+      <c r="D109">
+        <v>0.0050455558339020561</v>
+      </c>
+      <c r="E109">
+        <v>0.00017204624570927931</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+      <c r="G109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="9" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B110">
+        <v>4.5450807465815197e-08</v>
+      </c>
+      <c r="C110">
+        <v>0.9999385241379134</v>
+      </c>
+      <c r="D110">
+        <v>6.1230054972197348e-05</v>
+      </c>
+      <c r="E110">
+        <v>2.0035630690211941e-07</v>
+      </c>
+      <c r="F110">
+        <v>2</v>
+      </c>
+      <c r="G110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="9" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B111">
+        <v>5.3255547249188732e-06</v>
+      </c>
+      <c r="C111">
+        <v>0.99977666564069734</v>
+      </c>
+      <c r="D111">
+        <v>0.00014609231350172302</v>
+      </c>
+      <c r="E111">
+        <v>7.1916491076009793e-05</v>
+      </c>
+      <c r="F111">
+        <v>2</v>
+      </c>
+      <c r="G111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="9" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B112">
+        <v>1.7741229630632548e-07</v>
+      </c>
+      <c r="C112">
+        <v>0.99853704188821313</v>
+      </c>
+      <c r="D112">
+        <v>3.8208078226633264e-05</v>
+      </c>
+      <c r="E112">
+        <v>0.0014245726212640418</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B113">
+        <v>1.5678184288694941e-06</v>
+      </c>
+      <c r="C113">
+        <v>0.99873556797414165</v>
+      </c>
+      <c r="D113">
+        <v>0.0012627852251222897</v>
+      </c>
+      <c r="E113">
+        <v>7.8982307243513053e-08</v>
+      </c>
+      <c r="F113">
+        <v>2</v>
+      </c>
+      <c r="G113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="9" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B114">
+        <v>4.5339670885183372e-08</v>
+      </c>
+      <c r="C114">
+        <v>0.99909383220993087</v>
+      </c>
+      <c r="D114">
+        <v>4.0888985926030425e-05</v>
+      </c>
+      <c r="E114">
+        <v>0.00086523346447225013</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="9" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B115">
+        <v>8.5061288059224804e-08</v>
+      </c>
+      <c r="C115">
+        <v>0.99947063049124596</v>
+      </c>
+      <c r="D115">
+        <v>0.00049878108167889163</v>
+      </c>
+      <c r="E115">
+        <v>3.0503365787090517e-05</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+      <c r="G115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="9" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B116">
+        <v>2.5891948167944739e-07</v>
+      </c>
+      <c r="C116">
+        <v>0.99958392481763481</v>
+      </c>
+      <c r="D116">
+        <v>1.8939821270159751e-05</v>
+      </c>
+      <c r="E116">
+        <v>0.00039687644161333585</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="9" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B117">
+        <v>5.5418017007203892e-08</v>
+      </c>
+      <c r="C117">
+        <v>0.99992634454883189</v>
+      </c>
+      <c r="D117">
+        <v>7.3427464923855911e-05</v>
+      </c>
+      <c r="E117">
+        <v>1.7256822732416064e-07</v>
+      </c>
+      <c r="F117">
+        <v>2</v>
+      </c>
+      <c r="G117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B118">
+        <v>2.9464020157483191e-07</v>
+      </c>
+      <c r="C118">
+        <v>9.1615253524889893e-05</v>
+      </c>
+      <c r="D118">
+        <v>0.99990795623281181</v>
+      </c>
+      <c r="E118">
+        <v>1.338734617509139e-07</v>
+      </c>
+      <c r="F118">
+        <v>3</v>
+      </c>
+      <c r="G118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B119">
+        <v>4.0388843369346305e-07</v>
+      </c>
+      <c r="C119">
+        <v>0.00038185132025754515</v>
+      </c>
+      <c r="D119">
+        <v>0.999617741537289</v>
+      </c>
+      <c r="E119">
+        <v>3.2540198081072752e-09</v>
+      </c>
+      <c r="F119">
+        <v>3</v>
+      </c>
+      <c r="G119">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="9" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B120">
+        <v>0.00029700123562374916</v>
+      </c>
+      <c r="C120">
+        <v>0.0002273527478272999</v>
+      </c>
+      <c r="D120">
+        <v>0.99945026665624792</v>
+      </c>
+      <c r="E120">
+        <v>2.537936030104004e-05</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
+      </c>
+      <c r="G120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="9" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B121">
+        <v>3.9102951653183441e-05</v>
+      </c>
+      <c r="C121">
+        <v>0.00091396160551951129</v>
+      </c>
+      <c r="D121">
+        <v>0.99904212490250044</v>
+      </c>
+      <c r="E121">
+        <v>4.8105403268116624e-06</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="9" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B122">
+        <v>0.0021227923235709796</v>
+      </c>
+      <c r="C122">
+        <v>0.00071241249689350285</v>
+      </c>
+      <c r="D122">
+        <v>0.99716101772182364</v>
+      </c>
+      <c r="E122">
+        <v>3.7774577119269889e-06</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B123">
+        <v>7.0871815213187348e-07</v>
+      </c>
+      <c r="C123">
+        <v>0.00018084878484460524</v>
+      </c>
+      <c r="D123">
+        <v>0.99981798915577103</v>
+      </c>
+      <c r="E123">
+        <v>4.5334123231441808e-07</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B124">
+        <v>1.8550280894677688e-07</v>
+      </c>
+      <c r="C124">
+        <v>4.9730451505038265e-05</v>
+      </c>
+      <c r="D124">
+        <v>0.99994931044523572</v>
+      </c>
+      <c r="E124">
+        <v>7.7360045035480287e-07</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="9" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B125">
+        <v>0.000953280318132047</v>
+      </c>
+      <c r="C125">
+        <v>0.0014803580883344558</v>
+      </c>
+      <c r="D125">
+        <v>0.98733394603747748</v>
+      </c>
+      <c r="E125">
+        <v>0.010232415556056043</v>
+      </c>
+      <c r="F125">
+        <v>3</v>
+      </c>
+      <c r="G125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="9" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B126">
+        <v>8.3126926107273424e-08</v>
+      </c>
+      <c r="C126">
+        <v>0.0025306462320136549</v>
+      </c>
+      <c r="D126">
+        <v>0.99746927059403034</v>
+      </c>
+      <c r="E126">
+        <v>4.7029806416298905e-11</v>
+      </c>
+      <c r="F126">
+        <v>3</v>
+      </c>
+      <c r="G126">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B127">
+        <v>7.2019177908140869e-07</v>
+      </c>
+      <c r="C127">
+        <v>2.75120987533026e-07</v>
+      </c>
+      <c r="D127">
+        <v>0.99999900468721126</v>
+      </c>
+      <c r="E127">
+        <v>2.2209532446653048e-14</v>
+      </c>
+      <c r="F127">
+        <v>3</v>
+      </c>
+      <c r="G127">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="9" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B128">
+        <v>0.00018489679622985195</v>
+      </c>
+      <c r="C128">
+        <v>1.5161686698383516e-07</v>
+      </c>
+      <c r="D128">
+        <v>0.99981495156559885</v>
+      </c>
+      <c r="E128">
+        <v>2.1304229592267098e-11</v>
+      </c>
+      <c r="F128">
+        <v>3</v>
+      </c>
+      <c r="G128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B129">
+        <v>1.430591443341006e-08</v>
+      </c>
+      <c r="C129">
+        <v>8.3672941095813427e-07</v>
+      </c>
+      <c r="D129">
+        <v>0.99999914896465247</v>
+      </c>
+      <c r="E129">
+        <v>2.2206275094361641e-14</v>
+      </c>
+      <c r="F129">
+        <v>3</v>
+      </c>
+      <c r="G129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B130">
+        <v>0.00052253054078730057</v>
+      </c>
+      <c r="C130">
+        <v>0.00052659757150306445</v>
+      </c>
+      <c r="D130">
+        <v>0.99842867665884039</v>
+      </c>
+      <c r="E130">
+        <v>0.00052219522886939808</v>
+      </c>
+      <c r="F130">
+        <v>3</v>
+      </c>
+      <c r="G130">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B131">
+        <v>4.3425476512160268e-07</v>
+      </c>
+      <c r="C131">
+        <v>2.9046475778827099e-05</v>
+      </c>
+      <c r="D131">
+        <v>0.99997051925904556</v>
+      </c>
+      <c r="E131">
+        <v>1.0410453519623727e-11</v>
+      </c>
+      <c r="F131">
+        <v>3</v>
+      </c>
+      <c r="G131">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B132">
+        <v>1.2360504630959455e-07</v>
+      </c>
+      <c r="C132">
+        <v>8.3903549662415548e-06</v>
+      </c>
+      <c r="D132">
+        <v>0.99999148603987675</v>
+      </c>
+      <c r="E132">
+        <v>1.107446749530924e-13</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+      <c r="G132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B133">
+        <v>6.5448748588647053e-06</v>
+      </c>
+      <c r="C133">
+        <v>4.5934626698536406e-08</v>
+      </c>
+      <c r="D133">
+        <v>0.99999340919049218</v>
+      </c>
+      <c r="E133">
+        <v>2.2210781579463949e-14</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B134">
+        <v>8.0129980904420824e-07</v>
+      </c>
+      <c r="C134">
+        <v>8.1892093301980719e-05</v>
+      </c>
+      <c r="D134">
+        <v>0.99991730653961775</v>
+      </c>
+      <c r="E134">
+        <v>6.7271315302250136e-11</v>
+      </c>
+      <c r="F134">
+        <v>3</v>
+      </c>
+      <c r="G134">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B135">
+        <v>0.00074631623642929738</v>
+      </c>
+      <c r="C135">
+        <v>0.00076546741100460777</v>
+      </c>
+      <c r="D135">
+        <v>0.99774244495480935</v>
+      </c>
+      <c r="E135">
+        <v>0.00074577139775684666</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B136">
+        <v>1.3331029191694154e-06</v>
+      </c>
+      <c r="C136">
+        <v>1.7513816412214385e-08</v>
+      </c>
+      <c r="D136">
+        <v>0.99999864938324212</v>
+      </c>
+      <c r="E136">
+        <v>2.2209363385729511e-14</v>
+      </c>
+      <c r="F136">
+        <v>3</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B137">
+        <v>3.7256885799085082e-07</v>
+      </c>
+      <c r="C137">
+        <v>4.2923712355068422e-06</v>
+      </c>
+      <c r="D137">
+        <v>0.99999533505574956</v>
+      </c>
+      <c r="E137">
+        <v>4.1569648226577711e-12</v>
+      </c>
+      <c r="F137">
+        <v>3</v>
+      </c>
+      <c r="G137">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B138">
+        <v>3.963623086038178e-06</v>
+      </c>
+      <c r="C138">
+        <v>0.00072285563924062322</v>
+      </c>
+      <c r="D138">
+        <v>0.99926587129931133</v>
+      </c>
+      <c r="E138">
+        <v>7.3094383619703859e-06</v>
+      </c>
+      <c r="F138">
+        <v>3</v>
+      </c>
+      <c r="G138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B139">
+        <v>8.008627181525914e-07</v>
+      </c>
+      <c r="C139">
+        <v>8.6401892134315209e-05</v>
+      </c>
+      <c r="D139">
+        <v>0.99991279714349934</v>
+      </c>
+      <c r="E139">
+        <v>1.0164817857182975e-10</v>
+      </c>
+      <c r="F139">
+        <v>3</v>
+      </c>
+      <c r="G139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B140">
+        <v>3.2370690547096045e-06</v>
+      </c>
+      <c r="C140">
+        <v>2.0773762912009141e-07</v>
+      </c>
+      <c r="D140">
+        <v>0.99999655519329389</v>
+      </c>
+      <c r="E140">
+        <v>2.2212504017349287e-14</v>
+      </c>
+      <c r="F140">
+        <v>3</v>
+      </c>
+      <c r="G140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B141">
+        <v>4.162497003467512e-06</v>
+      </c>
+      <c r="C141">
+        <v>0.0010891576124299886</v>
+      </c>
+      <c r="D141">
+        <v>0.99890667284789036</v>
+      </c>
+      <c r="E141">
+        <v>7.0426762372682535e-09</v>
+      </c>
+      <c r="F141">
+        <v>3</v>
+      </c>
+      <c r="G141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B142">
+        <v>3.5823743558494054e-07</v>
+      </c>
+      <c r="C142">
+        <v>0.0015542408852502511</v>
+      </c>
+      <c r="D142">
+        <v>0.99844539932283405</v>
+      </c>
+      <c r="E142">
+        <v>1.5544801171508937e-09</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B143">
+        <v>1.2445557769107256e-06</v>
+      </c>
+      <c r="C143">
+        <v>1.0902989690755023e-07</v>
+      </c>
+      <c r="D143">
+        <v>0.99999864641430392</v>
+      </c>
+      <c r="E143">
+        <v>2.2210492911308157e-14</v>
+      </c>
+      <c r="F143">
+        <v>3</v>
+      </c>
+      <c r="G143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B144">
+        <v>9.0869166506398955e-07</v>
+      </c>
+      <c r="C144">
+        <v>1.7263647728343455e-05</v>
+      </c>
+      <c r="D144">
+        <v>0.99998182765939703</v>
+      </c>
+      <c r="E144">
+        <v>1.2095122661107087e-12</v>
+      </c>
+      <c r="F144">
+        <v>3</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B145">
+        <v>3.8863864924783092e-07</v>
+      </c>
+      <c r="C145">
+        <v>6.2876864352389404e-06</v>
+      </c>
+      <c r="D145">
+        <v>0.99999332367488913</v>
+      </c>
+      <c r="E145">
+        <v>2.6307239621106187e-14</v>
+      </c>
+      <c r="F145">
+        <v>3</v>
+      </c>
+      <c r="G145">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B146">
+        <v>1.4380542325470893e-07</v>
+      </c>
+      <c r="C146">
+        <v>0.00022509380055184573</v>
+      </c>
+      <c r="D146">
+        <v>0.99977476238091634</v>
+      </c>
+      <c r="E146">
+        <v>1.3108498770971972e-11</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B147">
+        <v>5.0823259627215268e-07</v>
+      </c>
+      <c r="C147">
+        <v>4.122469470786065e-07</v>
+      </c>
+      <c r="D147">
+        <v>0.99999907952043443</v>
+      </c>
+      <c r="E147">
+        <v>2.2207343424685739e-14</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B148">
+        <v>5.2253003198896954e-05</v>
+      </c>
+      <c r="C148">
+        <v>8.2339591706194959e-07</v>
+      </c>
+      <c r="D148">
+        <v>0.99994692351308734</v>
+      </c>
+      <c r="E148">
+        <v>8.7796736314994358e-11</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B149">
+        <v>4.1587033840361997e-06</v>
+      </c>
+      <c r="C149">
+        <v>2.7613170504707076e-09</v>
+      </c>
+      <c r="D149">
+        <v>0.99999583853527663</v>
+      </c>
+      <c r="E149">
+        <v>2.2204816705713678e-14</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B150">
+        <v>1.3029225373994366e-05</v>
+      </c>
+      <c r="C150">
+        <v>2.3045903128796259e-06</v>
+      </c>
+      <c r="D150">
+        <v>0.99998437036929422</v>
+      </c>
+      <c r="E150">
+        <v>2.9581501891979651e-07</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B151">
+        <v>1.0886942139341572e-06</v>
+      </c>
+      <c r="C151">
+        <v>1.2647286476892675e-07</v>
+      </c>
+      <c r="D151">
+        <v>0.9999987848323928</v>
+      </c>
+      <c r="E151">
+        <v>5.2846257740443958e-13</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B152">
+        <v>3.4666503065596733e-06</v>
+      </c>
+      <c r="C152">
+        <v>0.01162332853023606</v>
+      </c>
+      <c r="D152">
+        <v>0.98771860344917672</v>
+      </c>
+      <c r="E152">
+        <v>0.00065460137028060554</v>
+      </c>
+      <c r="F152">
+        <v>3</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B153">
+        <v>1.2293774756563968e-05</v>
+      </c>
+      <c r="C153">
+        <v>0.19789994433677247</v>
+      </c>
+      <c r="D153">
+        <v>0.80189785285520854</v>
+      </c>
+      <c r="E153">
+        <v>0.00018990903326244598</v>
+      </c>
+      <c r="F153">
+        <v>3</v>
+      </c>
+      <c r="G153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B154">
+        <v>0.026874651321029334</v>
+      </c>
+      <c r="C154">
+        <v>0.044540819874228685</v>
+      </c>
+      <c r="D154">
+        <v>0.91662218247171257</v>
+      </c>
+      <c r="E154">
+        <v>0.011962346333029559</v>
+      </c>
+      <c r="F154">
+        <v>3</v>
+      </c>
+      <c r="G154">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B155">
+        <v>3.2206572460304814e-06</v>
+      </c>
+      <c r="C155">
+        <v>0.0023865862341255618</v>
+      </c>
+      <c r="D155">
+        <v>0.99756570011423795</v>
+      </c>
+      <c r="E155">
+        <v>4.4492994390459914e-05</v>
+      </c>
+      <c r="F155">
+        <v>3</v>
+      </c>
+      <c r="G155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="B156">
+        <v>4.6830837242599829e-07</v>
+      </c>
+      <c r="C156">
+        <v>0.00036981527238397574</v>
+      </c>
+      <c r="D156">
+        <v>0.9996293467705073</v>
+      </c>
+      <c r="E156">
+        <v>3.6964873630673101e-07</v>
+      </c>
+      <c r="F156">
+        <v>3</v>
+      </c>
+      <c r="G156">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B157">
+        <v>0.0003059760490445756</v>
+      </c>
+      <c r="C157">
+        <v>5.9597397614068649e-05</v>
+      </c>
+      <c r="D157">
+        <v>0.99963442653557211</v>
+      </c>
+      <c r="E157">
+        <v>1.7769229958633753e-11</v>
+      </c>
+      <c r="F157">
+        <v>3</v>
+      </c>
+      <c r="G157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B158">
+        <v>0.0002907200229360592</v>
+      </c>
+      <c r="C158">
+        <v>5.2410608150838592e-06</v>
+      </c>
+      <c r="D158">
+        <v>0.99970392300700994</v>
+      </c>
+      <c r="E158">
+        <v>1.1590923892475339e-07</v>
+      </c>
+      <c r="F158">
+        <v>3</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B159">
+        <v>0.00021961503322786064</v>
+      </c>
+      <c r="C159">
+        <v>3.092946306835989e-05</v>
+      </c>
+      <c r="D159">
+        <v>0.9997493344332482</v>
+      </c>
+      <c r="E159">
+        <v>1.2107045547867682e-07</v>
+      </c>
+      <c r="F159">
+        <v>3</v>
+      </c>
+      <c r="G159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B160">
+        <v>7.2690834462192222e-06</v>
+      </c>
+      <c r="C160">
+        <v>1.6069955241033763e-05</v>
+      </c>
+      <c r="D160">
+        <v>0.99997664385941631</v>
+      </c>
+      <c r="E160">
+        <v>1.7101896460628233e-08</v>
+      </c>
+      <c r="F160">
+        <v>3</v>
+      </c>
+      <c r="G160">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B161">
+        <v>7.7085461532865092e-05</v>
+      </c>
+      <c r="C161">
+        <v>3.0267525907999614e-06</v>
+      </c>
+      <c r="D161">
+        <v>0.99991983620707059</v>
+      </c>
+      <c r="E161">
+        <v>5.1578805650191188e-08</v>
+      </c>
+      <c r="F161">
+        <v>3</v>
+      </c>
+      <c r="G161">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B162">
+        <v>7.356868194118043e-05</v>
+      </c>
+      <c r="C162">
+        <v>2.092785446814474e-05</v>
+      </c>
+      <c r="D162">
+        <v>0.99990525903132932</v>
+      </c>
+      <c r="E162">
+        <v>2.4443226122105402e-07</v>
+      </c>
+      <c r="F162">
+        <v>3</v>
+      </c>
+      <c r="G162">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B163">
+        <v>0.00034294454539603869</v>
+      </c>
+      <c r="C163">
+        <v>1.4001677877632635e-05</v>
+      </c>
+      <c r="D163">
+        <v>0.99964253110498336</v>
+      </c>
+      <c r="E163">
+        <v>5.2267174279952867e-07</v>
+      </c>
+      <c r="F163">
+        <v>3</v>
+      </c>
+      <c r="G163">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="B164">
+        <v>0.00026632822422644137</v>
+      </c>
+      <c r="C164">
+        <v>7.843234976392701e-06</v>
+      </c>
+      <c r="D164">
+        <v>0.99972571171850022</v>
+      </c>
+      <c r="E164">
+        <v>1.1682229709814943e-07</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+      <c r="G164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B165">
+        <v>2.5077326088114268e-05</v>
+      </c>
+      <c r="C165">
+        <v>4.4551918726852103e-05</v>
+      </c>
+      <c r="D165">
+        <v>0.99992876741312331</v>
+      </c>
+      <c r="E165">
+        <v>1.6033420617212011e-06</v>
+      </c>
+      <c r="F165">
+        <v>3</v>
+      </c>
+      <c r="G165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B166">
+        <v>6.0108515192309222e-08</v>
+      </c>
+      <c r="C166">
+        <v>1.0314052273535656e-07</v>
+      </c>
+      <c r="D166">
+        <v>0.99999983674911663</v>
+      </c>
+      <c r="E166">
+        <v>1.8453911104856875e-12</v>
+      </c>
+      <c r="F166">
+        <v>3</v>
+      </c>
+      <c r="G166">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B167">
+        <v>1.6421809651758375e-05</v>
+      </c>
+      <c r="C167">
+        <v>4.5494652719077111e-06</v>
+      </c>
+      <c r="D167">
+        <v>0.99997900519425287</v>
+      </c>
+      <c r="E167">
+        <v>2.3530823478917541e-08</v>
+      </c>
+      <c r="F167">
+        <v>3</v>
+      </c>
+      <c r="G167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B168">
+        <v>6.0317380964346954e-05</v>
+      </c>
+      <c r="C168">
+        <v>3.6365308055422908e-05</v>
+      </c>
+      <c r="D168">
+        <v>0.99990331704015745</v>
+      </c>
+      <c r="E168">
+        <v>2.7082270754893587e-10</v>
+      </c>
+      <c r="F168">
+        <v>3</v>
+      </c>
+      <c r="G168">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B169">
+        <v>0.00053477778499424133</v>
+      </c>
+      <c r="C169">
+        <v>0.035908195660417822</v>
+      </c>
+      <c r="D169">
+        <v>0.96353467186336572</v>
+      </c>
+      <c r="E169">
+        <v>2.2354691222203176e-05</v>
+      </c>
+      <c r="F169">
+        <v>3</v>
+      </c>
+      <c r="G169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B170">
+        <v>3.663235659512567e-06</v>
+      </c>
+      <c r="C170">
+        <v>1.1000358895759032e-07</v>
+      </c>
+      <c r="D170">
+        <v>0.99999622675518418</v>
+      </c>
+      <c r="E170">
+        <v>5.5674373080304685e-12</v>
+      </c>
+      <c r="F170">
+        <v>3</v>
+      </c>
+      <c r="G170">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B171">
+        <v>1.6628517763113365e-06</v>
+      </c>
+      <c r="C171">
+        <v>1.3892786328097137e-06</v>
+      </c>
+      <c r="D171">
+        <v>0.9999969230470519</v>
+      </c>
+      <c r="E171">
+        <v>2.4822539010362527e-08</v>
+      </c>
+      <c r="F171">
+        <v>3</v>
+      </c>
+      <c r="G171">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="B172">
+        <v>0.0018599172083626245</v>
+      </c>
+      <c r="C172">
+        <v>1.0100996111440822e-07</v>
+      </c>
+      <c r="D172">
+        <v>0.99813997206839955</v>
+      </c>
+      <c r="E172">
+        <v>9.7132767236791547e-09</v>
+      </c>
+      <c r="F172">
+        <v>3</v>
+      </c>
+      <c r="G172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B173">
+        <v>1.3077165493495273e-06</v>
+      </c>
+      <c r="C173">
+        <v>4.354211128403798e-08</v>
+      </c>
+      <c r="D173">
+        <v>0.9999986487413165</v>
+      </c>
+      <c r="E173">
+        <v>2.2791090538837089e-14</v>
+      </c>
+      <c r="F173">
+        <v>3</v>
+      </c>
+      <c r="G173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B174">
+        <v>1.1670293890970294e-05</v>
+      </c>
+      <c r="C174">
+        <v>2.8413845383749259e-08</v>
+      </c>
+      <c r="D174">
+        <v>0.99998830129184157</v>
+      </c>
+      <c r="E174">
+        <v>4.2216710973224212e-13</v>
+      </c>
+      <c r="F174">
+        <v>3</v>
+      </c>
+      <c r="G174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B175">
+        <v>5.9133001730746269e-07</v>
+      </c>
+      <c r="C175">
+        <v>9.0633250493903517e-08</v>
+      </c>
+      <c r="D175">
+        <v>0.99999931803670994</v>
+      </c>
+      <c r="E175">
+        <v>2.2204458758197991e-14</v>
+      </c>
+      <c r="F175">
+        <v>3</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B176">
+        <v>1.1421253270779499e-05</v>
+      </c>
+      <c r="C176">
+        <v>4.0469130470219672e-08</v>
+      </c>
+      <c r="D176">
+        <v>0.99998853827088063</v>
+      </c>
+      <c r="E176">
+        <v>6.7181413276160284e-12</v>
+      </c>
+      <c r="F176">
+        <v>3</v>
+      </c>
+      <c r="G176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="9" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B177">
+        <v>3.6315747305435433e-06</v>
+      </c>
+      <c r="C177">
+        <v>4.1703907206246085e-08</v>
+      </c>
+      <c r="D177">
+        <v>0.99999632667679172</v>
+      </c>
+      <c r="E177">
+        <v>4.457064496458406e-11</v>
+      </c>
+      <c r="F177">
+        <v>3</v>
+      </c>
+      <c r="G177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="9" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B178">
+        <v>0.0003667804057402503</v>
+      </c>
+      <c r="C178">
+        <v>1.5749285949966888e-07</v>
+      </c>
+      <c r="D178">
+        <v>0.99963305483034692</v>
+      </c>
+      <c r="E178">
+        <v>7.271053305135927e-09</v>
+      </c>
+      <c r="F178">
+        <v>3</v>
+      </c>
+      <c r="G178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="9" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B179">
+        <v>0.00027739764099284081</v>
+      </c>
+      <c r="C179">
+        <v>4.8912626244762246e-09</v>
+      </c>
+      <c r="D179">
+        <v>0.99972259395486851</v>
+      </c>
+      <c r="E179">
+        <v>3.5128759461525587e-09</v>
+      </c>
+      <c r="F179">
+        <v>3</v>
+      </c>
+      <c r="G179">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B180">
+        <v>0.00021352078967898865</v>
+      </c>
+      <c r="C180">
+        <v>4.0822353523086687e-07</v>
+      </c>
+      <c r="D180">
+        <v>0.99978606445821672</v>
+      </c>
+      <c r="E180">
+        <v>6.5285690211674841e-09</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+      <c r="G180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B181">
+        <v>0.00039503821650400576</v>
+      </c>
+      <c r="C181">
+        <v>2.7537271229680294e-05</v>
+      </c>
+      <c r="D181">
+        <v>0.99957635580173376</v>
+      </c>
+      <c r="E181">
+        <v>1.0687105325747531e-06</v>
+      </c>
+      <c r="F181">
+        <v>3</v>
+      </c>
+      <c r="G181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B182">
+        <v>3.1655253455161895e-05</v>
+      </c>
+      <c r="C182">
+        <v>8.214537397915471e-09</v>
+      </c>
+      <c r="D182">
+        <v>0.99996833630107063</v>
+      </c>
+      <c r="E182">
+        <v>2.3093684647233053e-10</v>
+      </c>
+      <c r="F182">
+        <v>3</v>
+      </c>
+      <c r="G182">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B183">
+        <v>0.00020595410862367565</v>
+      </c>
+      <c r="C183">
+        <v>6.1023918908975181e-08</v>
+      </c>
+      <c r="D183">
+        <v>0.99979398189320123</v>
+      </c>
+      <c r="E183">
+        <v>2.9742560729143117e-09</v>
+      </c>
+      <c r="F183">
+        <v>3</v>
+      </c>
+      <c r="G183">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B184">
+        <v>0.00018089543103862581</v>
+      </c>
+      <c r="C184">
+        <v>0.0019781899414621699</v>
+      </c>
+      <c r="D184">
+        <v>0.99784085111211074</v>
+      </c>
+      <c r="E184">
+        <v>6.3515388570446463e-08</v>
+      </c>
+      <c r="F184">
+        <v>3</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B185">
+        <v>0.0012593524622373381</v>
+      </c>
+      <c r="C185">
+        <v>1.6901312822223031e-07</v>
+      </c>
+      <c r="D185">
+        <v>0.99874042488608927</v>
+      </c>
+      <c r="E185">
+        <v>5.3638545276551644e-08</v>
+      </c>
+      <c r="F185">
+        <v>3</v>
+      </c>
+      <c r="G185">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B186">
+        <v>1.7264285052455753e-05</v>
+      </c>
+      <c r="C186">
+        <v>0.0011997211496852693</v>
+      </c>
+      <c r="D186">
+        <v>0.99878301374711509</v>
+      </c>
+      <c r="E186">
+        <v>8.1814698358899151e-10</v>
+      </c>
+      <c r="F186">
+        <v>3</v>
+      </c>
+      <c r="G186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B187">
+        <v>0.00044706225133971209</v>
+      </c>
+      <c r="C187">
+        <v>2.3607891574511487e-06</v>
+      </c>
+      <c r="D187">
+        <v>0.99955053030363961</v>
+      </c>
+      <c r="E187">
+        <v>4.6655863063564585e-08</v>
+      </c>
+      <c r="F187">
+        <v>3</v>
+      </c>
+      <c r="G187">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B188">
+        <v>0.00049099907532167706</v>
+      </c>
+      <c r="C188">
+        <v>7.0890318062677765e-06</v>
+      </c>
+      <c r="D188">
+        <v>0.999501910683676</v>
+      </c>
+      <c r="E188">
+        <v>1.2091960225888826e-09</v>
+      </c>
+      <c r="F188">
+        <v>3</v>
+      </c>
+      <c r="G188">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B189">
+        <v>3.9249607245757096e-06</v>
+      </c>
+      <c r="C189">
+        <v>3.0822142450447168e-06</v>
+      </c>
+      <c r="D189">
+        <v>0.99999299281996934</v>
+      </c>
+      <c r="E189">
+        <v>5.0609183796108906e-12</v>
+      </c>
+      <c r="F189">
+        <v>3</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B190">
+        <v>0.0035759408986101651</v>
+      </c>
+      <c r="C190">
+        <v>0.0003174448469047043</v>
+      </c>
+      <c r="D190">
+        <v>0.99609798168708086</v>
+      </c>
+      <c r="E190">
+        <v>8.6325674042738831e-06</v>
+      </c>
+      <c r="F190">
+        <v>3</v>
+      </c>
+      <c r="G190">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B191">
+        <v>5.0899953526204353e-05</v>
+      </c>
+      <c r="C191">
+        <v>2.6928280134802027e-05</v>
+      </c>
+      <c r="D191">
+        <v>0.99992216433366532</v>
+      </c>
+      <c r="E191">
+        <v>7.4326736982709242e-09</v>
+      </c>
+      <c r="F191">
+        <v>3</v>
+      </c>
+      <c r="G191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B192">
+        <v>5.2602473564149634e-05</v>
+      </c>
+      <c r="C192">
+        <v>0.0002787082637079974</v>
+      </c>
+      <c r="D192">
+        <v>0.99966844328989135</v>
+      </c>
+      <c r="E192">
+        <v>2.4597283635393768e-07</v>
+      </c>
+      <c r="F192">
+        <v>3</v>
+      </c>
+      <c r="G192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B193">
+        <v>0.00031875814700045639</v>
+      </c>
+      <c r="C193">
+        <v>2.3834330420765478e-06</v>
+      </c>
+      <c r="D193">
+        <v>0.99967885794450262</v>
+      </c>
+      <c r="E193">
+        <v>4.7545480054475791e-10</v>
+      </c>
+      <c r="F193">
+        <v>3</v>
+      </c>
+      <c r="G193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B194">
+        <v>0.25527228362470622</v>
+      </c>
+      <c r="C194">
+        <v>0.00096888881694529537</v>
+      </c>
+      <c r="D194">
+        <v>0.74375834422458298</v>
+      </c>
+      <c r="E194">
+        <v>4.833337654973144e-07</v>
+      </c>
+      <c r="F194">
+        <v>3</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B195">
+        <v>9.5308103377837918e-07</v>
+      </c>
+      <c r="C195">
+        <v>5.1392840172246327e-07</v>
+      </c>
+      <c r="D195">
+        <v>0.9999985329901464</v>
+      </c>
+      <c r="E195">
+        <v>4.1816230127755529e-13</v>
+      </c>
+      <c r="F195">
+        <v>3</v>
+      </c>
+      <c r="G195">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B196">
+        <v>8.8429880901300055e-05</v>
+      </c>
+      <c r="C196">
+        <v>7.113280712859589e-06</v>
+      </c>
+      <c r="D196">
+        <v>0.99990445531266725</v>
+      </c>
+      <c r="E196">
+        <v>1.5257187178687175e-09</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B197">
+        <v>2.7016175045397117e-06</v>
+      </c>
+      <c r="C197">
+        <v>0.0016265164960709792</v>
+      </c>
+      <c r="D197">
+        <v>0.99837078084773534</v>
+      </c>
+      <c r="E197">
+        <v>1.0386891083379566e-09</v>
+      </c>
+      <c r="F197">
+        <v>3</v>
+      </c>
+      <c r="G197">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B198">
+        <v>5.2505199162750051e-07</v>
+      </c>
+      <c r="C198">
+        <v>4.6335503726439347e-05</v>
+      </c>
+      <c r="D198">
+        <v>0.99995313940610009</v>
+      </c>
+      <c r="E198">
+        <v>3.8181823493137846e-11</v>
+      </c>
+      <c r="F198">
+        <v>3</v>
+      </c>
+      <c r="G198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B199">
+        <v>0.00054509518213215332</v>
+      </c>
+      <c r="C199">
+        <v>0.00055219586242366114</v>
+      </c>
+      <c r="D199">
+        <v>0.99835763759351182</v>
+      </c>
+      <c r="E199">
+        <v>0.00054507136193243178</v>
+      </c>
+      <c r="F199">
+        <v>3</v>
+      </c>
+      <c r="G199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B200">
+        <v>5.2701744367653451e-06</v>
+      </c>
+      <c r="C200">
+        <v>0.0011764623999027447</v>
+      </c>
+      <c r="D200">
+        <v>0.99881826742150437</v>
+      </c>
+      <c r="E200">
+        <v>4.1560548548790059e-12</v>
+      </c>
+      <c r="F200">
+        <v>3</v>
+      </c>
+      <c r="G200">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B201">
+        <v>1.2207039942427209e-05</v>
+      </c>
+      <c r="C201">
+        <v>0.00039901824175697203</v>
+      </c>
+      <c r="D201">
+        <v>0.99958856073635216</v>
+      </c>
+      <c r="E201">
+        <v>2.1398194847685285e-07</v>
+      </c>
+      <c r="F201">
+        <v>3</v>
+      </c>
+      <c r="G201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B202">
+        <v>9.6034125862406996e-06</v>
+      </c>
+      <c r="C202">
+        <v>1.651521659907891e-05</v>
+      </c>
+      <c r="D202">
+        <v>0.99997388091906336</v>
+      </c>
+      <c r="E202">
+        <v>4.5175136114171963e-10</v>
+      </c>
+      <c r="F202">
+        <v>3</v>
+      </c>
+      <c r="G202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B203">
+        <v>1.1018163404190203e-05</v>
+      </c>
+      <c r="C203">
+        <v>1.7575011344527162e-06</v>
+      </c>
+      <c r="D203">
+        <v>0.99998722021552433</v>
+      </c>
+      <c r="E203">
+        <v>4.1199370183938453e-09</v>
+      </c>
+      <c r="F203">
+        <v>3</v>
+      </c>
+      <c r="G203">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B204">
+        <v>3.3221109296575987e-05</v>
+      </c>
+      <c r="C204">
+        <v>0.0023425109583840014</v>
+      </c>
+      <c r="D204">
+        <v>0.99762426779346014</v>
+      </c>
+      <c r="E204">
+        <v>1.3885926418627227e-10</v>
+      </c>
+      <c r="F204">
+        <v>3</v>
+      </c>
+      <c r="G204">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B205">
+        <v>2.2131616186137801e-05</v>
+      </c>
+      <c r="C205">
+        <v>1.6425181202579301e-05</v>
+      </c>
+      <c r="D205">
+        <v>0.9999614431078172</v>
+      </c>
+      <c r="E205">
+        <v>9.4794093196826936e-11</v>
+      </c>
+      <c r="F205">
+        <v>3</v>
+      </c>
+      <c r="G205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B206">
+        <v>0.00057544376537858768</v>
+      </c>
+      <c r="C206">
+        <v>0.00056788344925472645</v>
+      </c>
+      <c r="D206">
+        <v>0.99829622431149168</v>
+      </c>
+      <c r="E206">
+        <v>0.00056044847387497741</v>
+      </c>
+      <c r="F206">
+        <v>3</v>
+      </c>
+      <c r="G206">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B207">
+        <v>0.00032197699587828914</v>
+      </c>
+      <c r="C207">
+        <v>0.083754337055173808</v>
+      </c>
+      <c r="D207">
+        <v>0.91589805355892351</v>
+      </c>
+      <c r="E207">
+        <v>2.5632390024300113e-05</v>
+      </c>
+      <c r="F207">
+        <v>3</v>
+      </c>
+      <c r="G207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B208">
+        <v>1.5678983554956673e-07</v>
+      </c>
+      <c r="C208">
+        <v>4.3131007827702778e-05</v>
+      </c>
+      <c r="D208">
+        <v>0.99995671220231452</v>
+      </c>
+      <c r="E208">
+        <v>2.2214917301538028e-14</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+      <c r="G208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B209">
+        <v>1.3354437096525951e-06</v>
+      </c>
+      <c r="C209">
+        <v>9.4177423122821018e-05</v>
+      </c>
+      <c r="D209">
+        <v>0.99990448713314528</v>
+      </c>
+      <c r="E209">
+        <v>2.2229566057841114e-14</v>
+      </c>
+      <c r="F209">
+        <v>3</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B210">
+        <v>2.2499375240396334e-05</v>
+      </c>
+      <c r="C210">
+        <v>0.0044152945642355447</v>
+      </c>
+      <c r="D210">
+        <v>0.99556220420108743</v>
+      </c>
+      <c r="E210">
+        <v>1.859436572121096e-09</v>
+      </c>
+      <c r="F210">
+        <v>3</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B211">
+        <v>9.0758088675016007e-06</v>
+      </c>
+      <c r="C211">
+        <v>0.0075127748076706802</v>
+      </c>
+      <c r="D211">
+        <v>0.99247814601446938</v>
+      </c>
+      <c r="E211">
+        <v>3.3689924311148333e-09</v>
+      </c>
+      <c r="F211">
+        <v>3</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B212">
+        <v>4.7362581048259552e-07</v>
+      </c>
+      <c r="C212">
+        <v>7.8092724460445407e-05</v>
+      </c>
+      <c r="D212">
+        <v>0.99992143364858099</v>
+      </c>
+      <c r="E212">
+        <v>1.1480538054681347e-12</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+      <c r="G212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B213">
+        <v>4.9100091987680307e-07</v>
+      </c>
+      <c r="C213">
+        <v>0.00058949354083766324</v>
+      </c>
+      <c r="D213">
+        <v>0.99940983312352594</v>
+      </c>
+      <c r="E213">
+        <v>1.8233471646989793e-07</v>
+      </c>
+      <c r="F213">
+        <v>3</v>
+      </c>
+      <c r="G213">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B214">
+        <v>2.3804883653032283e-07</v>
+      </c>
+      <c r="C214">
+        <v>0.0014036642141897946</v>
+      </c>
+      <c r="D214">
+        <v>0.99859544406460921</v>
+      </c>
+      <c r="E214">
+        <v>6.5367236443023122e-07</v>
+      </c>
+      <c r="F214">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B215">
+        <v>7.6783638746327635e-07</v>
+      </c>
+      <c r="C215">
+        <v>0.0011400466382540148</v>
+      </c>
+      <c r="D215">
+        <v>0.99885898423893127</v>
+      </c>
+      <c r="E215">
+        <v>2.0128642722194112e-07</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B216">
+        <v>6.7342104971494747e-07</v>
+      </c>
+      <c r="C216">
+        <v>0.074870398072422462</v>
+      </c>
+      <c r="D216">
+        <v>0.92510674718397901</v>
+      </c>
+      <c r="E216">
+        <v>2.218132254888493e-05</v>
+      </c>
+      <c r="F216">
+        <v>3</v>
+      </c>
+      <c r="G216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B217">
+        <v>5.2527928009755351e-07</v>
+      </c>
+      <c r="C217">
+        <v>4.77230084414535e-05</v>
+      </c>
+      <c r="D217">
+        <v>0.99995174822931154</v>
+      </c>
+      <c r="E217">
+        <v>3.4829669920236685e-09</v>
+      </c>
+      <c r="F217">
+        <v>3</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B218">
+        <v>2.1108457279693434e-06</v>
+      </c>
+      <c r="C218">
+        <v>0.00044864690679560602</v>
+      </c>
+      <c r="D218">
+        <v>0.99954903628279435</v>
+      </c>
+      <c r="E218">
+        <v>2.059646820223101e-07</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+      <c r="G218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B219">
+        <v>7.8760945454066892e-06</v>
+      </c>
+      <c r="C219">
+        <v>9.0636202218915011e-05</v>
+      </c>
+      <c r="D219">
+        <v>0.99988684741576461</v>
+      </c>
+      <c r="E219">
+        <v>1.4640287471185171e-05</v>
+      </c>
+      <c r="F219">
+        <v>3</v>
+      </c>
+      <c r="G219">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B220">
+        <v>2.845710970829321e-05</v>
+      </c>
+      <c r="C220">
+        <v>0.00083001331723537295</v>
+      </c>
+      <c r="D220">
+        <v>0.99914100912503512</v>
+      </c>
+      <c r="E220">
+        <v>5.2044802120215103e-07</v>
+      </c>
+      <c r="F220">
+        <v>3</v>
+      </c>
+      <c r="G220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B221">
+        <v>0.00038216403826516225</v>
+      </c>
+      <c r="C221">
+        <v>0.00046015859807734433</v>
+      </c>
+      <c r="D221">
+        <v>0.99912433285838875</v>
+      </c>
+      <c r="E221">
+        <v>3.3344505268726162e-05</v>
+      </c>
+      <c r="F221">
+        <v>3</v>
+      </c>
+      <c r="G221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B222">
+        <v>0.038587805947129655</v>
+      </c>
+      <c r="C222">
+        <v>0.10140962275006998</v>
+      </c>
+      <c r="D222">
+        <v>0.85370374922401804</v>
+      </c>
+      <c r="E222">
+        <v>0.0062988220787823191</v>
+      </c>
+      <c r="F222">
+        <v>3</v>
+      </c>
+      <c r="G222">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B223">
+        <v>2.1719101782265186e-05</v>
+      </c>
+      <c r="C223">
+        <v>0.00022279451256721478</v>
+      </c>
+      <c r="D223">
+        <v>0.99973398329918783</v>
+      </c>
+      <c r="E223">
+        <v>2.1503086462605675e-05</v>
+      </c>
+      <c r="F223">
+        <v>3</v>
+      </c>
+      <c r="G223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B224">
+        <v>7.765449493419195e-06</v>
+      </c>
+      <c r="C224">
+        <v>0.00083545792167401376</v>
+      </c>
+      <c r="D224">
+        <v>0.99915287373856709</v>
+      </c>
+      <c r="E224">
+        <v>3.9028902654367142e-06</v>
+      </c>
+      <c r="F224">
+        <v>3</v>
+      </c>
+      <c r="G224">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B225">
+        <v>2.0797626838869145e-05</v>
+      </c>
+      <c r="C225">
+        <v>0.00055821436042928485</v>
+      </c>
+      <c r="D225">
+        <v>0.99940391456415667</v>
+      </c>
+      <c r="E225">
+        <v>1.7073448575229076e-05</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B226">
+        <v>5.7351182372549751e-06</v>
+      </c>
+      <c r="C226">
+        <v>0.00063587680745382012</v>
+      </c>
+      <c r="D226">
+        <v>0.99935655547871372</v>
+      </c>
+      <c r="E226">
+        <v>1.8325955950944872e-06</v>
+      </c>
+      <c r="F226">
+        <v>3</v>
+      </c>
+      <c r="G226">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B227">
+        <v>0.00024454770369002884</v>
+      </c>
+      <c r="C227">
+        <v>0.00023292040778251125</v>
+      </c>
+      <c r="D227">
+        <v>0.99945983014946937</v>
+      </c>
+      <c r="E227">
+        <v>6.2701739058073497e-05</v>
+      </c>
+      <c r="F227">
+        <v>3</v>
+      </c>
+      <c r="G227">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B228">
+        <v>0.00013547624364800644</v>
+      </c>
+      <c r="C228">
+        <v>0.00019805126952612351</v>
+      </c>
+      <c r="D228">
+        <v>0.99964166154776868</v>
+      </c>
+      <c r="E228">
+        <v>2.4810939057169313e-05</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+      <c r="G228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B229">
+        <v>3.4561150535179565e-06</v>
+      </c>
+      <c r="C229">
+        <v>0.00096885255556247566</v>
+      </c>
+      <c r="D229">
+        <v>0.99902766898349449</v>
+      </c>
+      <c r="E229">
+        <v>2.2345889559348472e-08</v>
+      </c>
+      <c r="F229">
+        <v>3</v>
+      </c>
+      <c r="G229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B230">
+        <v>3.1716724148189728e-05</v>
+      </c>
+      <c r="C230">
+        <v>0.00209658797445421</v>
+      </c>
+      <c r="D230">
+        <v>0.99787167314623137</v>
+      </c>
+      <c r="E230">
+        <v>2.2155166230732703e-08</v>
+      </c>
+      <c r="F230">
+        <v>3</v>
+      </c>
+      <c r="G230">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B231">
+        <v>7.1534438785364371e-06</v>
+      </c>
+      <c r="C231">
+        <v>9.2838454803857614e-06</v>
+      </c>
+      <c r="D231">
+        <v>0.99998356195807336</v>
+      </c>
+      <c r="E231">
+        <v>7.5256772750288229e-10</v>
+      </c>
+      <c r="F231">
+        <v>3</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B232">
+        <v>6.7537964713092755e-06</v>
+      </c>
+      <c r="C232">
+        <v>1.8637363549038419e-05</v>
+      </c>
+      <c r="D232">
+        <v>0.99997460878334987</v>
+      </c>
+      <c r="E232">
+        <v>5.6629834208124662e-11</v>
+      </c>
+      <c r="F232">
+        <v>3</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B233">
+        <v>4.5020558185772787e-07</v>
+      </c>
+      <c r="C233">
+        <v>0.2277328837504099</v>
+      </c>
+      <c r="D233">
+        <v>0.77226666601964677</v>
+      </c>
+      <c r="E233">
+        <v>2.4361416746793673e-11</v>
+      </c>
+      <c r="F233">
+        <v>3</v>
+      </c>
+      <c r="G233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B234">
+        <v>0.00038915642480341991</v>
+      </c>
+      <c r="C234">
+        <v>0.003822511969847875</v>
+      </c>
+      <c r="D234">
+        <v>0.99578831076349417</v>
+      </c>
+      <c r="E234">
+        <v>2.0841854532933105e-08</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+      <c r="G234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B235">
+        <v>1.9844976387059777e-05</v>
+      </c>
+      <c r="C235">
+        <v>0.00055992437653374207</v>
+      </c>
+      <c r="D235">
+        <v>0.99937698872649106</v>
+      </c>
+      <c r="E235">
+        <v>4.3241920588027692e-05</v>
+      </c>
+      <c r="F235">
+        <v>3</v>
+      </c>
+      <c r="G235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B236">
+        <v>1.049895715819399e-06</v>
+      </c>
+      <c r="C236">
+        <v>0.00026510309263127427</v>
+      </c>
+      <c r="D236">
+        <v>0.99973342835643753</v>
+      </c>
+      <c r="E236">
+        <v>4.1865521536769803e-07</v>
+      </c>
+      <c r="F236">
+        <v>3</v>
+      </c>
+      <c r="G236">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B237">
+        <v>8.6840676141923433e-08</v>
+      </c>
+      <c r="C237">
+        <v>0.010571938374712994</v>
+      </c>
+      <c r="D237">
+        <v>0.98942797137827021</v>
+      </c>
+      <c r="E237">
+        <v>3.4063407485242803e-09</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B238">
+        <v>1.4851837595741618e-05</v>
+      </c>
+      <c r="C238">
+        <v>0.00011163936076746719</v>
+      </c>
+      <c r="D238">
+        <v>0.99986546884021121</v>
+      </c>
+      <c r="E238">
+        <v>8.0399614254807745e-06</v>
+      </c>
+      <c r="F238">
+        <v>3</v>
+      </c>
+      <c r="G238">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B239">
+        <v>2.0210150701365828e-06</v>
+      </c>
+      <c r="C239">
+        <v>0.00067458300322077291</v>
+      </c>
+      <c r="D239">
+        <v>0.9993224645846851</v>
+      </c>
+      <c r="E239">
+        <v>9.313970240127201e-07</v>
+      </c>
+      <c r="F239">
+        <v>3</v>
+      </c>
+      <c r="G239">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B240">
+        <v>2.5642212949435544e-07</v>
+      </c>
+      <c r="C240">
+        <v>0.00018401015480265214</v>
+      </c>
+      <c r="D240">
+        <v>0.99981463212599275</v>
+      </c>
+      <c r="E240">
+        <v>1.1012970751399841e-06</v>
+      </c>
+      <c r="F240">
+        <v>3</v>
+      </c>
+      <c r="G240">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B241">
+        <v>5.9710556768768062e-05</v>
+      </c>
+      <c r="C241">
+        <v>0.0005298467828664012</v>
+      </c>
+      <c r="D241">
+        <v>0.99941021520943807</v>
+      </c>
+      <c r="E241">
+        <v>2.2745092684980747e-07</v>
+      </c>
+      <c r="F241">
+        <v>3</v>
+      </c>
+      <c r="G241">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B242">
+        <v>4.7731955561750028e-05</v>
+      </c>
+      <c r="C242">
+        <v>6.7797479749349813e-05</v>
+      </c>
+      <c r="D242">
+        <v>0.99988444050001768</v>
+      </c>
+      <c r="E242">
+        <v>3.0064671257201557e-08</v>
+      </c>
+      <c r="F242">
+        <v>3</v>
+      </c>
+      <c r="G242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B243">
+        <v>0.00087712862568909485</v>
+      </c>
+      <c r="C243">
+        <v>0.00017613336801367702</v>
+      </c>
+      <c r="D243">
+        <v>0.99894418986316325</v>
+      </c>
+      <c r="E243">
+        <v>2.5481431339952365e-06</v>
+      </c>
+      <c r="F243">
+        <v>3</v>
+      </c>
+      <c r="G243">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B244">
+        <v>0.0001669652379816272</v>
+      </c>
+      <c r="C244">
+        <v>3.2630380883646553e-05</v>
+      </c>
+      <c r="D244">
+        <v>0.99980037816318212</v>
+      </c>
+      <c r="E244">
+        <v>2.6217952604362314e-08</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+      <c r="G244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B245">
+        <v>0.00016110748035291019</v>
+      </c>
+      <c r="C245">
+        <v>0.00082754922244224541</v>
+      </c>
+      <c r="D245">
+        <v>0.99901115128030049</v>
+      </c>
+      <c r="E245">
+        <v>1.9201690413571222e-07</v>
+      </c>
+      <c r="F245">
+        <v>3</v>
+      </c>
+      <c r="G245">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B246">
+        <v>1.0105302838216397e-06</v>
+      </c>
+      <c r="C246">
+        <v>2.3981863091727682e-05</v>
+      </c>
+      <c r="D246">
+        <v>0.99997500576311038</v>
+      </c>
+      <c r="E246">
+        <v>1.8435140412041655e-09</v>
+      </c>
+      <c r="F246">
+        <v>3</v>
+      </c>
+      <c r="G246">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B247">
+        <v>8.6889028644169598e-05</v>
+      </c>
+      <c r="C247">
+        <v>2.4074687589512339e-05</v>
+      </c>
+      <c r="D247">
+        <v>0.99988898653501046</v>
+      </c>
+      <c r="E247">
+        <v>4.9748755830283257e-08</v>
+      </c>
+      <c r="F247">
+        <v>3</v>
+      </c>
+      <c r="G247">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B248">
+        <v>7.5959637608962965e-05</v>
+      </c>
+      <c r="C248">
+        <v>1.6494528008259136e-06</v>
+      </c>
+      <c r="D248">
+        <v>0.99992238553431367</v>
+      </c>
+      <c r="E248">
+        <v>5.3752767058651984e-09</v>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B249">
+        <v>1.7455516822468131e-05</v>
+      </c>
+      <c r="C249">
+        <v>0.00028158167295886738</v>
+      </c>
+      <c r="D249">
+        <v>0.99969715527132164</v>
+      </c>
+      <c r="E249">
+        <v>3.8075388971761561e-06</v>
+      </c>
+      <c r="F249">
+        <v>3</v>
+      </c>
+      <c r="G249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B250">
+        <v>0.00024370421525216347</v>
+      </c>
+      <c r="C250">
+        <v>3.8678213724982412e-05</v>
+      </c>
+      <c r="D250">
+        <v>0.99971759711093844</v>
+      </c>
+      <c r="E250">
+        <v>2.0460084294606655e-08</v>
+      </c>
+      <c r="F250">
+        <v>3</v>
+      </c>
+      <c r="G250">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B251">
+        <v>0.00087883021674760092</v>
+      </c>
+      <c r="C251">
+        <v>0.00017508173636757483</v>
+      </c>
+      <c r="D251">
+        <v>0.99894598924153377</v>
+      </c>
+      <c r="E251">
+        <v>9.8805351045849582e-08</v>
+      </c>
+      <c r="F251">
+        <v>3</v>
+      </c>
+      <c r="G251">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B252">
+        <v>0.00010304534664524625</v>
+      </c>
+      <c r="C252">
+        <v>3.0101036127025727e-05</v>
+      </c>
+      <c r="D252">
+        <v>0.99986563081145308</v>
+      </c>
+      <c r="E252">
+        <v>1.2228057746867599e-06</v>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+      <c r="G252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B253">
+        <v>4.8427470478905735e-07</v>
+      </c>
+      <c r="C253">
+        <v>3.555620474534751e-05</v>
+      </c>
+      <c r="D253">
+        <v>0.99996342868413601</v>
+      </c>
+      <c r="E253">
+        <v>5.3083641381602478e-07</v>
+      </c>
+      <c r="F253">
+        <v>3</v>
+      </c>
+      <c r="G253">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B254">
+        <v>3.3832676273062634e-10</v>
+      </c>
+      <c r="C254">
+        <v>5.6706832159333949e-07</v>
+      </c>
+      <c r="D254">
+        <v>1.4833320446316203e-10</v>
+      </c>
+      <c r="E254">
+        <v>0.99999943244501832</v>
+      </c>
+      <c r="F254">
+        <v>4</v>
+      </c>
+      <c r="G254">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B255">
+        <v>9.883740560654642e-10</v>
+      </c>
+      <c r="C255">
+        <v>2.7125916643728473e-06</v>
+      </c>
+      <c r="D255">
+        <v>5.6982718248052682e-10</v>
+      </c>
+      <c r="E255">
+        <v>0.99999728585013448</v>
+      </c>
+      <c r="F255">
+        <v>4</v>
+      </c>
+      <c r="G255">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B256">
+        <v>1.9698239003028823e-08</v>
+      </c>
+      <c r="C256">
+        <v>7.8423755298711871e-06</v>
+      </c>
+      <c r="D256">
+        <v>1.1278801647771551e-07</v>
+      </c>
+      <c r="E256">
+        <v>0.99999202513821461</v>
+      </c>
+      <c r="F256">
+        <v>4</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B257">
+        <v>5.6954319954864398e-08</v>
+      </c>
+      <c r="C257">
+        <v>3.1614965196413865e-08</v>
+      </c>
+      <c r="D257">
+        <v>1.8701091868727529e-09</v>
+      </c>
+      <c r="E257">
+        <v>0.99999990956060558</v>
+      </c>
+      <c r="F257">
+        <v>4</v>
+      </c>
+      <c r="G257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B258">
+        <v>1.2808883385974139e-08</v>
+      </c>
+      <c r="C258">
+        <v>0.00012714412042997235</v>
+      </c>
+      <c r="D258">
+        <v>7.7866619738469276e-08</v>
+      </c>
+      <c r="E258">
+        <v>0.99987276520406687</v>
+      </c>
+      <c r="F258">
+        <v>4</v>
+      </c>
+      <c r="G258">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B259">
+        <v>1.9517175055879255e-07</v>
+      </c>
+      <c r="C259">
+        <v>4.8641886410495802e-09</v>
+      </c>
+      <c r="D259">
+        <v>3.7340064630817037e-08</v>
+      </c>
+      <c r="E259">
+        <v>0.99999976262399615</v>
+      </c>
+      <c r="F259">
+        <v>4</v>
+      </c>
+      <c r="G259">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B260">
+        <v>2.7650484255403858e-08</v>
+      </c>
+      <c r="C260">
+        <v>1.2060137900993487e-06</v>
+      </c>
+      <c r="D260">
+        <v>5.0941793677255492e-09</v>
+      </c>
+      <c r="E260">
+        <v>0.99999876124154619</v>
+      </c>
+      <c r="F260">
+        <v>4</v>
+      </c>
+      <c r="G260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B261">
+        <v>2.8704187786710121e-06</v>
+      </c>
+      <c r="C261">
+        <v>2.1078056205994093e-07</v>
+      </c>
+      <c r="D261">
+        <v>1.7131533275187423e-07</v>
+      </c>
+      <c r="E261">
+        <v>0.99999674748532652</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+      <c r="G261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B262">
+        <v>0.00046201752683115851</v>
+      </c>
+      <c r="C262">
+        <v>4.5436023874840207e-07</v>
+      </c>
+      <c r="D262">
+        <v>0.0001212224599157968</v>
+      </c>
+      <c r="E262">
+        <v>0.9994163056530142</v>
+      </c>
+      <c r="F262">
+        <v>4</v>
+      </c>
+      <c r="G262">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B263">
+        <v>2.4431271310182415e-07</v>
+      </c>
+      <c r="C263">
+        <v>1.2685840101500077e-06</v>
+      </c>
+      <c r="D263">
+        <v>0.00028584182056971418</v>
+      </c>
+      <c r="E263">
+        <v>0.99971264528270709</v>
+      </c>
+      <c r="F263">
+        <v>4</v>
+      </c>
+      <c r="G263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B264">
+        <v>5.1843530817542206e-07</v>
+      </c>
+      <c r="C264">
+        <v>4.7893124604884804e-06</v>
+      </c>
+      <c r="D264">
+        <v>1.1085981762699912e-07</v>
+      </c>
+      <c r="E264">
+        <v>0.99999458139241382</v>
+      </c>
+      <c r="F264">
+        <v>4</v>
+      </c>
+      <c r="G264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B265">
+        <v>5.8699072313630074e-08</v>
+      </c>
+      <c r="C265">
+        <v>1.3059789597900148e-11</v>
+      </c>
+      <c r="D265">
+        <v>3.3664391594578038e-08</v>
+      </c>
+      <c r="E265">
+        <v>0.99999990762347635</v>
+      </c>
+      <c r="F265">
+        <v>4</v>
+      </c>
+      <c r="G265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B266">
+        <v>2.7690187759569406e-07</v>
+      </c>
+      <c r="C266">
+        <v>1.8127505953473806e-07</v>
+      </c>
+      <c r="D266">
+        <v>6.4384456009710084e-09</v>
+      </c>
+      <c r="E266">
+        <v>0.99999953538461717</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+      <c r="G266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B267">
+        <v>0.00044086291642792832</v>
+      </c>
+      <c r="C267">
+        <v>1.081443316116666e-06</v>
+      </c>
+      <c r="D267">
+        <v>5.4405234612752409e-06</v>
+      </c>
+      <c r="E267">
+        <v>0.99955261511679472</v>
+      </c>
+      <c r="F267">
+        <v>4</v>
+      </c>
+      <c r="G267">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B268">
+        <v>7.4348717846858522e-07</v>
+      </c>
+      <c r="C268">
+        <v>6.9217986451864159e-08</v>
+      </c>
+      <c r="D268">
+        <v>1.3799737567184074e-06</v>
+      </c>
+      <c r="E268">
+        <v>0.99999780732107835</v>
+      </c>
+      <c r="F268">
+        <v>4</v>
+      </c>
+      <c r="G268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B269">
+        <v>6.0718806801042513e-08</v>
+      </c>
+      <c r="C269">
+        <v>3.6979952892730774e-08</v>
+      </c>
+      <c r="D269">
+        <v>2.3445186865845243e-07</v>
+      </c>
+      <c r="E269">
+        <v>0.99999966784937167</v>
+      </c>
+      <c r="F269">
+        <v>4</v>
+      </c>
+      <c r="G269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B270">
+        <v>6.9971048391846553e-07</v>
+      </c>
+      <c r="C270">
+        <v>6.2675394074582055e-08</v>
+      </c>
+      <c r="D270">
+        <v>6.1600974743767908e-07</v>
+      </c>
+      <c r="E270">
+        <v>0.99999862160437447</v>
+      </c>
+      <c r="F270">
+        <v>4</v>
+      </c>
+      <c r="G270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B271">
+        <v>6.0190402935102737e-06</v>
+      </c>
+      <c r="C271">
+        <v>2.1004288715650766e-07</v>
+      </c>
+      <c r="D271">
+        <v>4.2131347871910491e-05</v>
+      </c>
+      <c r="E271">
+        <v>0.99995163956894739</v>
+      </c>
+      <c r="F271">
+        <v>4</v>
+      </c>
+      <c r="G271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B272">
+        <v>0.00071499650600634964</v>
+      </c>
+      <c r="C272">
+        <v>1.1717413335212682e-05</v>
+      </c>
+      <c r="D272">
+        <v>2.9576647939874629e-05</v>
+      </c>
+      <c r="E272">
+        <v>0.99924370943271867</v>
+      </c>
+      <c r="F272">
+        <v>4</v>
+      </c>
+      <c r="G272">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B273">
+        <v>2.9725445585504377e-08</v>
+      </c>
+      <c r="C273">
+        <v>6.4186232969698241e-09</v>
+      </c>
+      <c r="D273">
+        <v>1.0802732273071147e-09</v>
+      </c>
+      <c r="E273">
+        <v>0.99999996277565784</v>
+      </c>
+      <c r="F273">
+        <v>4</v>
+      </c>
+      <c r="G273">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B274">
+        <v>2.8207842804851255e-07</v>
+      </c>
+      <c r="C274">
+        <v>4.6547000285247775e-08</v>
+      </c>
+      <c r="D274">
+        <v>1.4215524471458425e-09</v>
+      </c>
+      <c r="E274">
+        <v>0.99999966995301914</v>
+      </c>
+      <c r="F274">
+        <v>4</v>
+      </c>
+      <c r="G274">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B275">
+        <v>5.092579643572823e-08</v>
+      </c>
+      <c r="C275">
+        <v>9.9591535939998711e-09</v>
+      </c>
+      <c r="D275">
+        <v>4.9223978289234234e-08</v>
+      </c>
+      <c r="E275">
+        <v>0.99999988989107169</v>
+      </c>
+      <c r="F275">
+        <v>4</v>
+      </c>
+      <c r="G275">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B276">
+        <v>5.8619120046673787e-08</v>
+      </c>
+      <c r="C276">
+        <v>2.4087452076068357e-08</v>
+      </c>
+      <c r="D276">
+        <v>1.7353843051381969e-08</v>
+      </c>
+      <c r="E276">
+        <v>0.99999989993958494</v>
+      </c>
+      <c r="F276">
+        <v>4</v>
+      </c>
+      <c r="G276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B277">
+        <v>6.4408139897721248e-06</v>
+      </c>
+      <c r="C277">
+        <v>4.1102423441778119e-09</v>
+      </c>
+      <c r="D277">
+        <v>6.1106274803941739e-09</v>
+      </c>
+      <c r="E277">
+        <v>0.99999354896514037</v>
+      </c>
+      <c r="F277">
+        <v>4</v>
+      </c>
+      <c r="G277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B278">
+        <v>0.0020092819477060511</v>
+      </c>
+      <c r="C278">
+        <v>3.0461387497736972e-07</v>
+      </c>
+      <c r="D278">
+        <v>1.0792597766895879e-06</v>
+      </c>
+      <c r="E278">
+        <v>0.99798933417864222</v>
+      </c>
+      <c r="F278">
+        <v>4</v>
+      </c>
+      <c r="G278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B279">
+        <v>4.8199440832065591e-05</v>
+      </c>
+      <c r="C279">
+        <v>1.056638212846899e-07</v>
+      </c>
+      <c r="D279">
+        <v>3.1343519329491603e-08</v>
+      </c>
+      <c r="E279">
+        <v>0.99995166355182719</v>
+      </c>
+      <c r="F279">
+        <v>4</v>
+      </c>
+      <c r="G279">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B280">
+        <v>2.7260749095633733e-08</v>
+      </c>
+      <c r="C280">
+        <v>1.1592102288764071e-06</v>
+      </c>
+      <c r="D280">
+        <v>2.100492452034982e-08</v>
+      </c>
+      <c r="E280">
+        <v>0.99999879252409751</v>
+      </c>
+      <c r="F280">
+        <v>4</v>
+      </c>
+      <c r="G280">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B281">
+        <v>2.3948391398939862e-08</v>
+      </c>
+      <c r="C281">
+        <v>7.2911776637930993e-07</v>
+      </c>
+      <c r="D281">
+        <v>2.0289011401987842e-08</v>
+      </c>
+      <c r="E281">
+        <v>0.99999922664483076</v>
+      </c>
+      <c r="F281">
+        <v>4</v>
+      </c>
+      <c r="G281">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B282">
+        <v>5.7896411445085694e-06</v>
+      </c>
+      <c r="C282">
+        <v>4.2594922465736175e-05</v>
+      </c>
+      <c r="D282">
+        <v>2.1032546355821348e-05</v>
+      </c>
+      <c r="E282">
+        <v>0.99993058289003389</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
+      </c>
+      <c r="G282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B283">
+        <v>3.0164102239189424e-07</v>
+      </c>
+      <c r="C283">
+        <v>1.2000714614813971e-07</v>
+      </c>
+      <c r="D283">
+        <v>1.5831169528599055e-06</v>
+      </c>
+      <c r="E283">
+        <v>0.99999799523487864</v>
+      </c>
+      <c r="F283">
+        <v>4</v>
+      </c>
+      <c r="G283">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B284">
+        <v>8.965747923378035e-08</v>
+      </c>
+      <c r="C284">
+        <v>2.9979405023106549e-08</v>
+      </c>
+      <c r="D284">
+        <v>3.7458607778171323e-09</v>
+      </c>
+      <c r="E284">
+        <v>0.99999987661725487</v>
+      </c>
+      <c r="F284">
+        <v>4</v>
+      </c>
+      <c r="G284">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B285">
+        <v>1.5811270915499936e-06</v>
+      </c>
+      <c r="C285">
+        <v>2.9921409852681487e-08</v>
+      </c>
+      <c r="D285">
+        <v>2.4102126052168487e-09</v>
+      </c>
+      <c r="E285">
+        <v>0.99999838654128592</v>
+      </c>
+      <c r="F285">
+        <v>4</v>
+      </c>
+      <c r="G285">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B286">
+        <v>0.00015685879085808817</v>
+      </c>
+      <c r="C286">
+        <v>7.7156011314868331e-08</v>
+      </c>
+      <c r="D286">
+        <v>3.6374738239834044e-09</v>
+      </c>
+      <c r="E286">
+        <v>0.99984306041565674</v>
+      </c>
+      <c r="F286">
+        <v>4</v>
+      </c>
+      <c r="G286">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B287">
+        <v>5.1201034349198455e-07</v>
+      </c>
+      <c r="C287">
+        <v>3.2322247052689571e-08</v>
+      </c>
+      <c r="D287">
+        <v>1.7811945878051283e-07</v>
+      </c>
+      <c r="E287">
+        <v>0.99999927754795059</v>
+      </c>
+      <c r="F287">
+        <v>4</v>
+      </c>
+      <c r="G287">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B288">
+        <v>1.0889407206222134e-07</v>
+      </c>
+      <c r="C288">
+        <v>1.9679734354912558e-08</v>
+      </c>
+      <c r="D288">
+        <v>2.5041581600158867e-07</v>
+      </c>
+      <c r="E288">
+        <v>0.99999962101037743</v>
+      </c>
+      <c r="F288">
+        <v>4</v>
+      </c>
+      <c r="G288">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B289">
+        <v>1.7046741635132289e-07</v>
+      </c>
+      <c r="C289">
+        <v>1.0978801243523301e-07</v>
+      </c>
+      <c r="D289">
+        <v>7.2466427434437238e-10</v>
+      </c>
+      <c r="E289">
+        <v>0.99999971901990692</v>
+      </c>
+      <c r="F289">
+        <v>4</v>
+      </c>
+      <c r="G289">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B290">
+        <v>6.4585263421773803e-07</v>
+      </c>
+      <c r="C290">
+        <v>3.3029619727466402e-09</v>
+      </c>
+      <c r="D290">
+        <v>5.2428836845693987e-08</v>
+      </c>
+      <c r="E290">
+        <v>0.9999992984155669</v>
+      </c>
+      <c r="F290">
+        <v>4</v>
+      </c>
+      <c r="G290">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B291">
+        <v>7.0532369233731829e-07</v>
+      </c>
+      <c r="C291">
+        <v>1.3181979991371772e-05</v>
+      </c>
+      <c r="D291">
+        <v>4.5221371038763809e-08</v>
+      </c>
+      <c r="E291">
+        <v>0.99998606747494534</v>
+      </c>
+      <c r="F291">
+        <v>4</v>
+      </c>
+      <c r="G291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B292">
+        <v>2.1801325121123644e-05</v>
+      </c>
+      <c r="C292">
+        <v>1.7658668727468429e-05</v>
+      </c>
+      <c r="D292">
+        <v>1.158789172350359e-06</v>
+      </c>
+      <c r="E292">
+        <v>0.99995938121697914</v>
+      </c>
+      <c r="F292">
+        <v>4</v>
+      </c>
+      <c r="G292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B293">
+        <v>5.1149594617370884e-06</v>
+      </c>
+      <c r="C293">
+        <v>4.6423570074377884e-06</v>
+      </c>
+      <c r="D293">
+        <v>0.00021184481737572774</v>
+      </c>
+      <c r="E293">
+        <v>0.99977839786615508</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
+      </c>
+      <c r="G293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B294">
+        <v>1.2615055377162599e-07</v>
+      </c>
+      <c r="C294">
+        <v>8.735910799870301e-08</v>
+      </c>
+      <c r="D294">
+        <v>2.0091315697711529e-09</v>
+      </c>
+      <c r="E294">
+        <v>0.99999978448120674</v>
+      </c>
+      <c r="F294">
+        <v>4</v>
+      </c>
+      <c r="G294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B295">
+        <v>3.7758718623240027e-10</v>
+      </c>
+      <c r="C295">
+        <v>2.3610789497147476e-07</v>
+      </c>
+      <c r="D295">
+        <v>4.7731403217101315e-11</v>
+      </c>
+      <c r="E295">
+        <v>0.99999976346678654</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B296">
+        <v>6.1222482769261969e-07</v>
+      </c>
+      <c r="C296">
+        <v>1.8617264972846136e-07</v>
+      </c>
+      <c r="D296">
+        <v>5.9722447971428627e-09</v>
+      </c>
+      <c r="E296">
+        <v>0.99999919563027784</v>
+      </c>
+      <c r="F296">
+        <v>4</v>
+      </c>
+      <c r="G296">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B297">
+        <v>5.3630325672326387e-07</v>
+      </c>
+      <c r="C297">
+        <v>1.0009257696946739e-05</v>
+      </c>
+      <c r="D297">
+        <v>2.8956072798005735e-07</v>
+      </c>
+      <c r="E297">
+        <v>0.99998916487831835</v>
+      </c>
+      <c r="F297">
+        <v>4</v>
+      </c>
+      <c r="G297">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B298">
+        <v>1.2304256067707055e-05</v>
+      </c>
+      <c r="C298">
+        <v>5.604248598483984e-07</v>
+      </c>
+      <c r="D298">
+        <v>4.8811033722647795e-09</v>
+      </c>
+      <c r="E298">
+        <v>0.99998713043796916</v>
+      </c>
+      <c r="F298">
+        <v>4</v>
+      </c>
+      <c r="G298">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B299">
+        <v>1.296747260269951e-05</v>
+      </c>
+      <c r="C299">
+        <v>1.5864262595175706e-05</v>
+      </c>
+      <c r="D299">
+        <v>1.6274012554869812e-09</v>
+      </c>
+      <c r="E299">
+        <v>0.99997116663740093</v>
+      </c>
+      <c r="F299">
+        <v>4</v>
+      </c>
+      <c r="G299">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B300">
+        <v>0.00027393872259145834</v>
+      </c>
+      <c r="C300">
+        <v>0.00024664040783174294</v>
+      </c>
+      <c r="D300">
+        <v>4.2486650161876297e-08</v>
+      </c>
+      <c r="E300">
+        <v>0.99947937838292678</v>
+      </c>
+      <c r="F300">
+        <v>4</v>
+      </c>
+      <c r="G300">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B301">
+        <v>5.496712963048634e-06</v>
+      </c>
+      <c r="C301">
+        <v>3.6367641865797195e-06</v>
+      </c>
+      <c r="D301">
+        <v>3.1533581596162208e-07</v>
+      </c>
+      <c r="E301">
+        <v>0.99999055118703439</v>
+      </c>
+      <c r="F301">
+        <v>4</v>
+      </c>
+      <c r="G301">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B302">
+        <v>0.0022796702125228311</v>
+      </c>
+      <c r="C302">
+        <v>3.9733892988203979e-05</v>
+      </c>
+      <c r="D302">
+        <v>0.00030853331692590994</v>
+      </c>
+      <c r="E302">
+        <v>0.99737206257756306</v>
+      </c>
+      <c r="F302">
+        <v>4</v>
+      </c>
+      <c r="G302">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B303">
+        <v>0.00096134434825971245</v>
+      </c>
+      <c r="C303">
+        <v>0.0039868676990909456</v>
+      </c>
+      <c r="D303">
+        <v>0.00038207631799145605</v>
+      </c>
+      <c r="E303">
+        <v>0.99466971163465789</v>
+      </c>
+      <c r="F303">
+        <v>4</v>
+      </c>
+      <c r="G303">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B304">
+        <v>0.00081835119076085463</v>
+      </c>
+      <c r="C304">
+        <v>3.287986307132274e-07</v>
+      </c>
+      <c r="D304">
+        <v>0.00060942119788794308</v>
+      </c>
+      <c r="E304">
+        <v>0.99857189881272057</v>
+      </c>
+      <c r="F304">
+        <v>4</v>
+      </c>
+      <c r="G304">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>